--- a/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
+++ b/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Documents\Python\project01\data\raw_data\ComparisonEstimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0481E134-EF47-4EBC-8BFC-3F2D1A56F3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D86B0B-BB02-4FC1-B36B-2ED22F47798E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -136,12 +136,6 @@
     <t>Expert estimates from Bamber PNAS 2019</t>
   </si>
   <si>
-    <t>Table 2</t>
-  </si>
-  <si>
-    <t>https://www.pnas.org/content/116/23/11195</t>
-  </si>
-  <si>
     <t>GMSL</t>
   </si>
   <si>
@@ -172,13 +166,13 @@
     <t>AIS</t>
   </si>
   <si>
-    <t>bamberTscenario = np.array([[0.72, 1.5, 2], [0.72, 2, 5]]) #temperature in 2000,2050,2100</t>
-  </si>
-  <si>
     <t>GrIS</t>
   </si>
   <si>
     <t>There is almost certainly a better source for this! LeClerq ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table2 https://www.pnas.org/content/116/23/11195 </t>
   </si>
 </sst>
 </file>
@@ -520,10 +514,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F1" sqref="F1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -531,34 +525,34 @@
     <col min="2" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.95416999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.95416999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.6449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1.6449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -581,7 +575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -595,14 +589,14 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="E5" s="4">
-        <f>0.04/$J$3</f>
+        <f>0.04/$G$2</f>
         <v>2.4317587695300628E-2</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -622,7 +616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -662,45 +656,45 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+      <selection activeCell="F1" sqref="F1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.95416999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.95416999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.6449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1.6449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -723,7 +717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -747,7 +741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -761,14 +755,14 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="E6" s="6">
-        <f>0.005/J2</f>
+        <f>0.005/$G$1</f>
         <v>5.24015636626597E-3</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
@@ -803,45 +797,45 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.95416999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.95416999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.6449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1.6449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -864,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -888,7 +882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -902,14 +896,14 @@
         <v>0.46</v>
       </c>
       <c r="E6" s="6">
-        <f>0.026/J2</f>
+        <f>0.026/$G$1</f>
         <v>2.724881310458304E-2</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
@@ -934,7 +928,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -950,42 +944,42 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="F1" sqref="F1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.95416999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.95416999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.6449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1.6449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1008,7 +1002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1025,7 +1019,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
@@ -1060,10 +1054,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1071,34 +1065,34 @@
     <col min="2" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.95416999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.95416999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.6449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1.6449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1145,7 +1139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1167,7 +1161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1189,7 +1183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
@@ -1255,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA05C6A7-BA3D-4777-877F-5B2D19C566E2}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:H6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1268,7 +1262,7 @@
     <col min="4" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1276,65 +1270,105 @@
         <v>31</v>
       </c>
       <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>0</v>
-      </c>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="I4" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="14">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14">
+        <f>(0.7+1.5+1.5+2)/4</f>
+        <v>1.425</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.36</v>
+      </c>
+      <c r="E5">
+        <v>0.49</v>
+      </c>
+      <c r="F5">
+        <v>0.69</v>
+      </c>
+      <c r="G5">
+        <v>0.98</v>
+      </c>
+      <c r="H5">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f>(0.7+2+2+5)/4</f>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.62</v>
+      </c>
+      <c r="E6">
+        <v>0.79</v>
+      </c>
+      <c r="F6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G6">
+        <v>1.74</v>
+      </c>
+      <c r="H6">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="B7" s="14">
         <v>2</v>
@@ -1343,31 +1377,25 @@
         <f>(0.7+1.5+1.5+2)/4</f>
         <v>1.425</v>
       </c>
-      <c r="D7" s="14">
-        <v>0.36</v>
+      <c r="D7">
+        <v>-0.08</v>
       </c>
       <c r="E7">
-        <v>0.49</v>
+        <v>-0.01</v>
       </c>
       <c r="F7">
-        <v>0.69</v>
+        <v>0.09</v>
       </c>
       <c r="G7">
-        <v>0.98</v>
+        <v>0.26</v>
       </c>
       <c r="H7">
-        <v>1.26</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1377,24 +1405,24 @@
         <v>2.4249999999999998</v>
       </c>
       <c r="D8">
-        <v>0.62</v>
+        <v>-0.11</v>
       </c>
       <c r="E8">
-        <v>0.79</v>
+        <v>0.02</v>
       </c>
       <c r="F8">
-        <v>1.1100000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="G8">
-        <v>1.74</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H8">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="14">
         <v>2</v>
@@ -1404,24 +1432,24 @@
         <v>1.425</v>
       </c>
       <c r="D9">
-        <v>-0.08</v>
+        <v>0.02</v>
       </c>
       <c r="E9">
-        <v>-0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F9">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="G9">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="H9">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1431,72 +1459,18 @@
         <v>2.4249999999999998</v>
       </c>
       <c r="D10">
-        <v>-0.11</v>
+        <v>0.02</v>
       </c>
       <c r="E10">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="G10">
-        <v>0.56999999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="H10">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="14">
-        <v>2</v>
-      </c>
-      <c r="C11" s="14">
-        <f>(0.7+1.5+1.5+2)/4</f>
-        <v>1.425</v>
-      </c>
-      <c r="D11">
-        <v>0.02</v>
-      </c>
-      <c r="E11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F11">
-        <v>0.13</v>
-      </c>
-      <c r="G11">
-        <v>0.31</v>
-      </c>
-      <c r="H11">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <f>(0.7+2+2+5)/4</f>
-        <v>2.4249999999999998</v>
-      </c>
-      <c r="D12">
-        <v>0.02</v>
-      </c>
-      <c r="E12">
-        <v>0.1</v>
-      </c>
-      <c r="F12">
-        <v>0.23</v>
-      </c>
-      <c r="G12">
-        <v>0.6</v>
-      </c>
-      <c r="H12">
         <v>0.99</v>
       </c>
     </row>

--- a/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
+++ b/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Documents\Python\project01\data\raw_data\ComparisonEstimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D86B0B-BB02-4FC1-B36B-2ED22F47798E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC994CD1-1AF7-40D7-A037-DCB43AF7A131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMSL" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="GrIS" sheetId="5" r:id="rId5"/>
     <sheet name="WAIS" sheetId="6" r:id="rId6"/>
     <sheet name="EAIS" sheetId="7" r:id="rId7"/>
-    <sheet name="Expert" sheetId="8" r:id="rId8"/>
+    <sheet name="Pen" sheetId="9" r:id="rId8"/>
+    <sheet name="Expert" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -173,6 +174,9 @@
   </si>
   <si>
     <t xml:space="preserve">Table2 https://www.pnas.org/content/116/23/11195 </t>
+  </si>
+  <si>
+    <t>IMBIE 2, https://www.nature.com/articles/s41586-018-0179-y</t>
   </si>
 </sst>
 </file>
@@ -182,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -239,6 +243,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -273,7 +294,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -289,11 +310,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -517,7 +540,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -612,7 +635,7 @@
       <c r="E6" s="6">
         <v>0.03</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -637,7 +660,7 @@
       <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -737,7 +760,7 @@
       <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -763,24 +786,24 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>1850</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>1900</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <f t="shared" ref="D7:E7" si="0">0.014*100/50</f>
         <v>2.8000000000000004E-2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <f t="shared" si="0"/>
         <v>2.8000000000000004E-2</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -904,30 +927,30 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>1850</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>1900</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <f t="shared" ref="D7:E7" si="0">0.014*100/50</f>
         <v>2.8000000000000004E-2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <f t="shared" si="0"/>
         <v>2.8000000000000004E-2</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -944,10 +967,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G2"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1002,50 +1025,59 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="1">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C5" s="1">
         <v>2017</v>
       </c>
       <c r="D5" s="10">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+        <f>0.0076/(C5-B5)</f>
+        <v>3.0400000000000002E-4</v>
+      </c>
+      <c r="E5" s="10">
+        <f>0.0039/(C5-B5)</f>
+        <v>1.56E-4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>1850</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>1900</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <f t="shared" ref="D6:E6" si="0">0.014*100/50</f>
         <v>2.8000000000000004E-2</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <f t="shared" si="0"/>
         <v>2.8000000000000004E-2</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1057,7 +1089,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1125,7 +1157,7 @@
       <c r="C5" s="1">
         <v>2015</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <f>0.077-0.01</f>
         <v>6.7000000000000004E-2</v>
       </c>
@@ -1184,30 +1216,30 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>1850</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>1900</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f t="shared" ref="D8:E8" si="0">0.014*100/50</f>
         <v>2.8000000000000004E-2</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <f t="shared" si="0"/>
         <v>2.8000000000000004E-2</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1222,12 +1254,96 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.95416999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.6449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1992</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="17">
+        <f>94/361000</f>
+        <v>2.6038781163434903E-4</v>
+      </c>
+      <c r="E5" s="17">
+        <f>27/361000</f>
+        <v>7.4792243767313015E-5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1248,10 +1364,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E700963A-2E81-4D98-8532-52392815F16C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA05C6A7-BA3D-4777-877F-5B2D19C566E2}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1263,67 +1391,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="13"/>
       <c r="E1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14"/>
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <f>(0.7+1.5+1.5+2)/4</f>
         <v>1.425</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0.36</v>
       </c>
       <c r="E5">
@@ -1340,7 +1468,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B6">
@@ -1367,13 +1495,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <f>(0.7+1.5+1.5+2)/4</f>
         <v>1.425</v>
       </c>
@@ -1394,7 +1522,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B8">
@@ -1421,13 +1549,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <f>(0.7+1.5+1.5+2)/4</f>
         <v>1.425</v>
       </c>
@@ -1448,7 +1576,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B10">

--- a/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
+++ b/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Documents\Python\project01\data\raw_data\ComparisonEstimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC994CD1-1AF7-40D7-A037-DCB43AF7A131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464D7753-76A8-42AA-8B4A-C864CE169AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMSL" sheetId="1" r:id="rId1"/>
     <sheet name="Steric" sheetId="2" r:id="rId2"/>
     <sheet name="Glaciers" sheetId="3" r:id="rId3"/>
-    <sheet name="AIS" sheetId="4" r:id="rId4"/>
-    <sheet name="GrIS" sheetId="5" r:id="rId5"/>
+    <sheet name="GrIS" sheetId="5" r:id="rId4"/>
+    <sheet name="AIS" sheetId="4" r:id="rId5"/>
     <sheet name="WAIS" sheetId="6" r:id="rId6"/>
     <sheet name="EAIS" sheetId="7" r:id="rId7"/>
     <sheet name="Pen" sheetId="9" r:id="rId8"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="49">
   <si>
     <t>#</t>
   </si>
@@ -143,9 +143,6 @@
     <t>T2100</t>
   </si>
   <si>
-    <t>Temperatures given relative to the preindustrial</t>
-  </si>
-  <si>
     <t>avgT during 21stC</t>
   </si>
   <si>
@@ -177,6 +174,18 @@
   </si>
   <si>
     <t>IMBIE 2, https://www.nature.com/articles/s41586-018-0179-y</t>
+  </si>
+  <si>
+    <t>m/century</t>
+  </si>
+  <si>
+    <t>IMBIE 2, https://www.nature.com/articles/s41586-018-0179-y/tables/1</t>
+  </si>
+  <si>
+    <t>Temperatures given relative to the preindustrial (1850-1900)</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41586-019-1071-0?TB_iframe=true&amp;width=921.6&amp;height=921.6</t>
   </si>
 </sst>
 </file>
@@ -540,7 +549,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -823,7 +832,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -906,24 +915,25 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1">
-        <v>1970</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2015</v>
+      <c r="B6" s="7">
+        <v>1961</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2016</v>
       </c>
       <c r="D6" s="6">
-        <v>0.46</v>
+        <f>0.027*100/($C6-$B6)</f>
+        <v>4.9090909090909095E-2</v>
       </c>
       <c r="E6" s="6">
-        <f>0.026/$G$1</f>
-        <v>2.724881310458304E-2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
+        <f>0.022*100/($C6-$B6)</f>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -951,7 +961,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -963,125 +973,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2">
-        <v>0.95416999999999996</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.6449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1992</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D5" s="10">
-        <f>0.0076/(C5-B5)</f>
-        <v>3.0400000000000002E-4</v>
-      </c>
-      <c r="E5" s="10">
-        <f>0.0039/(C5-B5)</f>
-        <v>1.56E-4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="14">
-        <v>1850</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1900</v>
-      </c>
-      <c r="D6" s="14">
-        <f t="shared" ref="D6:E6" si="0">0.014*100/50</f>
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="E6" s="14">
-        <f t="shared" si="0"/>
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1089,7 +980,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1194,7 +1085,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="10">
@@ -1243,9 +1134,131 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{37DEF5A8-E9F1-46C3-BAEE-FFDF254259B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.95416999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.6449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="10">
+        <f>0.0076*100/(C5-B5)</f>
+        <v>3.04E-2</v>
+      </c>
+      <c r="E5" s="10">
+        <f>0.0039*100/(C5-B5)</f>
+        <v>1.5599999999999998E-2</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1850</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1900</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" ref="D6:E6" si="0">0.014*100/50</f>
+        <v>2.8000000000000004E-2</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000004E-2</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1254,10 +1267,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1288,6 +1301,9 @@
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="D3" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1323,25 +1339,16 @@
         <v>2017</v>
       </c>
       <c r="D5" s="17">
-        <f>94/361000</f>
-        <v>2.6038781163434903E-4</v>
+        <f>94/3610</f>
+        <v>2.6038781163434901E-2</v>
       </c>
       <c r="E5" s="17">
-        <f>27/361000</f>
-        <v>7.4792243767313015E-5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+        <f>27/3610</f>
+        <v>7.479224376731302E-3</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1353,24 +1360,180 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.95416999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.6449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1992</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="17">
+        <f>-5/3610</f>
+        <v>-1.3850415512465374E-3</v>
+      </c>
+      <c r="E5" s="17">
+        <f>46/3610</f>
+        <v>1.2742382271468145E-2</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E700963A-2E81-4D98-8532-52392815F16C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.95416999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.6449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1992</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="17">
+        <f>20/3610</f>
+        <v>5.5401662049861496E-3</v>
+      </c>
+      <c r="E5" s="17">
+        <f>15/3610</f>
+        <v>4.1551246537396124E-3</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1379,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA05C6A7-BA3D-4777-877F-5B2D19C566E2}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1399,7 +1562,7 @@
       </c>
       <c r="C1" s="13"/>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1407,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -1422,22 +1585,22 @@
         <v>33</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1496,7 +1659,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="13">
         <v>2</v>
@@ -1523,7 +1686,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1550,7 +1713,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="13">
         <v>2</v>
@@ -1577,7 +1740,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>5</v>

--- a/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
+++ b/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Documents\Python\project01\data\raw_data\ComparisonEstimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464D7753-76A8-42AA-8B4A-C864CE169AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA20F50C-071B-4D44-80BC-BAB7EA5C2B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMSL" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="AIS" sheetId="4" r:id="rId5"/>
     <sheet name="WAIS" sheetId="6" r:id="rId6"/>
     <sheet name="EAIS" sheetId="7" r:id="rId7"/>
-    <sheet name="Pen" sheetId="9" r:id="rId8"/>
+    <sheet name="PEN" sheetId="9" r:id="rId8"/>
     <sheet name="Expert" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -205,39 +205,46 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -549,7 +556,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -832,7 +839,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1153,7 +1160,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1171,7 @@
         <v>0.95416999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1190,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1228,7 +1235,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -1452,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E700963A-2E81-4D98-8532-52392815F16C}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1542,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA05C6A7-BA3D-4777-877F-5B2D19C566E2}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
+++ b/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Documents\Python\project01\data\raw_data\ComparisonEstimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA20F50C-071B-4D44-80BC-BAB7EA5C2B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506D9A5C-27C6-4379-9090-A7AED2893AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24585" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMSL" sheetId="1" r:id="rId1"/>
@@ -697,8 +697,8 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1459,7 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E700963A-2E81-4D98-8532-52392815F16C}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
+++ b/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Documents\Python\project01\data\raw_data\ComparisonEstimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506D9A5C-27C6-4379-9090-A7AED2893AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEA2BED-8E2F-4325-B848-A28EDF64A899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24585" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMSL" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="EAIS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="9" r:id="rId8"/>
     <sheet name="Expert" sheetId="8" r:id="rId9"/>
+    <sheet name="transposed ar6" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="67">
   <si>
     <t>#</t>
   </si>
@@ -71,48 +72,18 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Sat</t>
-  </si>
-  <si>
     <t>https://www.earth-syst-sci-data.net/11/1189/2019/s</t>
   </si>
   <si>
-    <t>TG</t>
-  </si>
-  <si>
     <t>PI</t>
   </si>
   <si>
-    <t>Kopp</t>
-  </si>
-  <si>
     <t>Table needs careful readthrough</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>??????</t>
-  </si>
-  <si>
-    <t>Hist</t>
-  </si>
-  <si>
-    <t>SROCC table 4.1</t>
-  </si>
-  <si>
-    <t>This is really from GMSL ... Not Steric!   TODO: find source or argue case</t>
-  </si>
-  <si>
-    <t>TODO: include periphery?</t>
-  </si>
-  <si>
-    <t>SROCC</t>
-  </si>
-  <si>
-    <t>#this is the number from srocc minus peripheral (bamber states PGIC 0.1)</t>
-  </si>
-  <si>
     <t>IMBIE2</t>
   </si>
   <si>
@@ -131,9 +102,6 @@
     <t xml:space="preserve">1850-1900 Estimate based on this paper provided by Kopp by email </t>
   </si>
   <si>
-    <t>I think I got it from SROCC - TODO: check</t>
-  </si>
-  <si>
     <t>Expert estimates from Bamber PNAS 2019</t>
   </si>
   <si>
@@ -167,9 +135,6 @@
     <t>GrIS</t>
   </si>
   <si>
-    <t>There is almost certainly a better source for this! LeClerq ?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Table2 https://www.pnas.org/content/116/23/11195 </t>
   </si>
   <si>
@@ -186,6 +151,96 @@
   </si>
   <si>
     <t>https://www.nature.com/articles/s41586-019-1071-0?TB_iframe=true&amp;width=921.6&amp;height=921.6</t>
+  </si>
+  <si>
+    <t>20c</t>
+  </si>
+  <si>
+    <t>ar6 table 9.5</t>
+  </si>
+  <si>
+    <t>not really wais, ais</t>
+  </si>
+  <si>
+    <t>not really eais, ais</t>
+  </si>
+  <si>
+    <t>not really pen but, ais</t>
+  </si>
+  <si>
+    <t>Thermal expansion</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>mm/yr</t>
+  </si>
+  <si>
+    <t>1901-1990</t>
+  </si>
+  <si>
+    <t>{9.6.1.1}</t>
+  </si>
+  <si>
+    <t>1971-2018</t>
+  </si>
+  <si>
+    <t>{CCBox 9.1}</t>
+  </si>
+  <si>
+    <t>1993-2018</t>
+  </si>
+  <si>
+    <t>{9.6.1.2}</t>
+  </si>
+  <si>
+    <t>2006-2018</t>
+  </si>
+  <si>
+    <t>1901-2018</t>
+  </si>
+  <si>
+    <t>Observed contribution</t>
+  </si>
+  <si>
+    <t>to GMSL change</t>
+  </si>
+  <si>
+    <t>Glaciers (ex. peripheral)</t>
+  </si>
+  <si>
+    <t>Greenland incl. periphery</t>
+  </si>
+  <si>
+    <t>Antarctic ice sheet (Incl. peripheral)</t>
+  </si>
+  <si>
+    <t>Land water storage</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>observed GMSL</t>
+  </si>
+  <si>
+    <t>https://www.ipcc.ch/report/ar6/wg1/downloads/report/IPCC_AR6_WGI_Chapter_09.pdf</t>
+  </si>
+  <si>
+    <t>TODO: use non-overlapping periods from Zanna et al instead of ar6</t>
+  </si>
+  <si>
+    <t>this has been updated-reflect the revisions in table 9.1</t>
+  </si>
+  <si>
+    <t>AR6</t>
+  </si>
+  <si>
+    <t>AR6 ch9</t>
+  </si>
+  <si>
+    <t>ar6</t>
   </si>
 </sst>
 </file>
@@ -195,7 +250,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -231,11 +286,6 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -276,6 +326,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -307,32 +375,55 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -553,10 +644,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -564,7 +655,7 @@
     <col min="2" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,8 +665,11 @@
       <c r="G1" s="2">
         <v>0.95416999999999996</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,15 +677,25 @@
         <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>1.6449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.2896999999999998</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+    </row>
+    <row r="4" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -613,80 +717,859 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+    </row>
+    <row r="5" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
       </c>
       <c r="B5" s="1">
+        <v>1901</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1990</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1.35</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.34653615831230811</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+    </row>
+    <row r="6" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1971</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2.33</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.47724716539502088</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+    </row>
+    <row r="7" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="6">
         <v>1993</v>
       </c>
-      <c r="C5" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="E5" s="4">
-        <f>0.04/$G$2</f>
-        <v>2.4317587695300628E-2</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="C7" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="18">
+        <v>3.25</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.22190473295437274</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+    </row>
+    <row r="8" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2006</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D8">
+        <v>3.69</v>
+      </c>
+      <c r="E8">
+        <v>0.29181992278931213</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+    </row>
+    <row r="9" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1901</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D9">
+        <v>1.73</v>
+      </c>
+      <c r="E9">
+        <v>0.27054138675259143</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+    </row>
+    <row r="10" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="B10" s="1">
+        <v>1850</v>
+      </c>
+      <c r="C10" s="1">
         <v>1900</v>
       </c>
-      <c r="C6" s="1">
-        <v>1990</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1850</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1900</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" ref="D7:E7" si="0">0.014*100/50</f>
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" si="0"/>
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="D10" s="6">
+        <f>0.014*1000/50</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E10" s="6">
+        <f>0.014*1000/50</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+    </row>
+    <row r="17" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+    </row>
+    <row r="18" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="23"/>
+    </row>
+    <row r="19" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="23"/>
+    </row>
+    <row r="20" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q20" s="23"/>
+    </row>
+    <row r="21" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q21" s="23"/>
+    </row>
+    <row r="22" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q22" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{F467BD4C-9F4B-4DD2-817D-8AC186017B59}"/>
+    <hyperlink ref="H1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{F467BD4C-9F4B-4DD2-817D-8AC186017B59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031DC691-DD2C-453E-9956-962ECE938F19}">
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="7.85546875" style="16" customWidth="1"/>
+    <col min="5" max="9" width="7.85546875" style="18" customWidth="1"/>
+    <col min="10" max="19" width="7.85546875" style="16" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="25"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1901</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1990</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="F3" s="23">
+        <f>ABS(0.17-0.54)/$B$19</f>
+        <v>0.11247226190838071</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H3" s="23">
+        <f>ABS(0.34-0.82)/$B$19</f>
+        <v>0.14590996139465603</v>
+      </c>
+      <c r="I3" s="23">
+        <v>0.33</v>
+      </c>
+      <c r="J3" s="23">
+        <f>ABS(0.18-0.47)/$B$19</f>
+        <v>8.8153935009271364E-2</v>
+      </c>
+      <c r="K3" s="23">
+        <v>0</v>
+      </c>
+      <c r="L3" s="23">
+        <f>ABS(-0.1-0.11)/$B$19</f>
+        <v>6.3835608110162034E-2</v>
+      </c>
+      <c r="M3" s="23">
+        <v>-0.15</v>
+      </c>
+      <c r="N3" s="23">
+        <f>ABS(-0.35-0.04)/$B$19</f>
+        <v>0.11855184363315803</v>
+      </c>
+      <c r="O3" s="23">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="P3" s="23">
+        <f>ABS(0.71-1.52)/$B$19</f>
+        <v>0.24622305985348211</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>1.35</v>
+      </c>
+      <c r="R3" s="23">
+        <f>ABS(0.78-1.92)/$B$19</f>
+        <v>0.34653615831230811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1971</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1.01</v>
+      </c>
+      <c r="F4" s="24">
+        <f>ABS(0.73-1.29)/$B$19</f>
+        <v>0.17022828829376541</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.44</v>
+      </c>
+      <c r="H4" s="23">
+        <f>ABS(0.21-0.67)/$B$19</f>
+        <v>0.13983037966987874</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="J4" s="23">
+        <f>ABS(0.16-0.34)/$B$19</f>
+        <v>5.4716235522996023E-2</v>
+      </c>
+      <c r="K4" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L4" s="23">
+        <f>ABS(-0.09-0.37)/$B$19</f>
+        <v>0.13983037966987871</v>
+      </c>
+      <c r="M4" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="N4" s="23">
+        <f>ABS(-0.05-0.36)/$B$19</f>
+        <v>0.12463142535793537</v>
+      </c>
+      <c r="O4" s="23">
+        <v>2</v>
+      </c>
+      <c r="P4" s="23">
+        <f>ABS(1.52-2.49)/$B$19</f>
+        <v>0.29485971365170083</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>2.33</v>
+      </c>
+      <c r="R4" s="23">
+        <f>ABS(1.55-3.12)/$B$19</f>
+        <v>0.47724716539502088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1993</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1.31</v>
+      </c>
+      <c r="F5" s="24">
+        <f>ABS(0.95-1.66)/$B$19</f>
+        <v>0.21582515122959539</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H5" s="23">
+        <f>ABS(0.4-0.7)/$B$19</f>
+        <v>9.1193725871660011E-2</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="J5" s="23">
+        <f>ABS(0.36-0.51)/$B$19</f>
+        <v>4.5596862935830026E-2</v>
+      </c>
+      <c r="K5" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="L5" s="23">
+        <f>ABS(0.16-0.33)/$B$19</f>
+        <v>5.1676444660607355E-2</v>
+      </c>
+      <c r="M5" s="23">
+        <v>0.31</v>
+      </c>
+      <c r="N5" s="23">
+        <f>ABS(0.13-0.49)/$B$19</f>
+        <v>0.10943247104599203</v>
+      </c>
+      <c r="O5" s="23">
+        <v>2.85</v>
+      </c>
+      <c r="P5" s="23">
+        <f>ABS(2.41-3.29)/$B$19</f>
+        <v>0.26750159589020273</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>3.25</v>
+      </c>
+      <c r="R5" s="23">
+        <f>ABS(2.88-3.61)/$B$19</f>
+        <v>0.22190473295437274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2006</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1.39</v>
+      </c>
+      <c r="F6" s="23">
+        <f>ABS(0.74-2.05)/$B$19</f>
+        <v>0.39821260297291544</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.62</v>
+      </c>
+      <c r="H6" s="23">
+        <f>ABS(0.57-0.68)/$B$19</f>
+        <v>3.3437699486275375E-2</v>
+      </c>
+      <c r="I6" s="23">
+        <v>0.63</v>
+      </c>
+      <c r="J6" s="23">
+        <f>ABS(0.51-0.74)/$B$19</f>
+        <v>6.9915189834939356E-2</v>
+      </c>
+      <c r="K6" s="23">
+        <v>0.37</v>
+      </c>
+      <c r="L6" s="23">
+        <f>ABS(0.24-0.5)/$B$19</f>
+        <v>7.9034562422105367E-2</v>
+      </c>
+      <c r="M6" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="N6" s="23">
+        <f>ABS(0.32-0.88)/$B$19</f>
+        <v>0.17022828829376541</v>
+      </c>
+      <c r="O6" s="23">
+        <v>3.61</v>
+      </c>
+      <c r="P6" s="23">
+        <f>ABS(2.88-4.35)/$B$19</f>
+        <v>0.44684925677113407</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>3.69</v>
+      </c>
+      <c r="R6" s="23">
+        <f>ABS(3.21-4.17)/$B$19</f>
+        <v>0.29181992278931213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1901</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.54</v>
+      </c>
+      <c r="F7" s="23">
+        <f>ABS(0.4 -0.68)/$B$19</f>
+        <v>8.5114144146882703E-2</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H7" s="23">
+        <f>ABS(0.36-0.79)/$B$19</f>
+        <v>0.13071100708271274</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="J7" s="23">
+        <f>ABS(0.23-0.46)/$B$19</f>
+        <v>6.9915189834939356E-2</v>
+      </c>
+      <c r="K7" s="23">
+        <v>0.06</v>
+      </c>
+      <c r="L7" s="23">
+        <f>ABS(-0.03-0.15)/$B$19</f>
+        <v>5.4716235522996017E-2</v>
+      </c>
+      <c r="M7" s="23">
+        <v>-0.11</v>
+      </c>
+      <c r="N7" s="23">
+        <f>ABS(-0.39-0.17)/$B$19</f>
+        <v>0.17022828829376541</v>
+      </c>
+      <c r="O7" s="23">
+        <v>1.41</v>
+      </c>
+      <c r="P7" s="23">
+        <f>ABS(1-1.82)/$B$19</f>
+        <v>0.24926285071587079</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>1.73</v>
+      </c>
+      <c r="R7" s="23">
+        <f>ABS(1.28-2.17)/$B$19</f>
+        <v>0.27054138675259143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3.2896999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E24" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -695,15 +1578,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,26 +1597,27 @@
         <v>0.95416999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>1.6449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3.2896999999999998</v>
+      </c>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -753,77 +1637,126 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>1901</v>
+      </c>
+      <c r="C5">
+        <v>1990</v>
+      </c>
+      <c r="D5">
+        <v>0.36</v>
+      </c>
+      <c r="E5">
+        <v>0.11247226190838071</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>1971</v>
+      </c>
+      <c r="C6">
+        <v>2018</v>
+      </c>
+      <c r="D6">
+        <v>1.01</v>
+      </c>
+      <c r="E6">
+        <v>0.17022828829376541</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+    </row>
+    <row r="7" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>1993</v>
+      </c>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+      <c r="D7">
+        <v>1.31</v>
+      </c>
+      <c r="E7">
+        <v>0.21582515122959539</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
         <v>2006</v>
       </c>
-      <c r="C5" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E5" s="4">
-        <f>0.032</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1970</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D6" s="6">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="E6" s="6">
-        <f>0.005/$G$1</f>
-        <v>5.24015636626597E-3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="14">
-        <v>1850</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1900</v>
-      </c>
-      <c r="D7" s="14">
-        <f t="shared" ref="D7:E7" si="0">0.014*100/50</f>
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="E7" s="14">
-        <f t="shared" si="0"/>
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="D8">
+        <v>1.39</v>
+      </c>
+      <c r="E8">
+        <v>0.39821260297291544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>1901</v>
+      </c>
+      <c r="C9">
+        <v>2018</v>
+      </c>
+      <c r="D9">
+        <v>0.54</v>
+      </c>
+      <c r="E9">
+        <v>8.5114144146882703E-2</v>
       </c>
     </row>
   </sheetData>
@@ -836,15 +1769,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,27 +1787,36 @@
       <c r="G1" s="2">
         <v>0.95416999999999996</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>1.6449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.2896999999999998</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -894,86 +1836,185 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1901</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1990</v>
+      </c>
+      <c r="D5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.14590996139465603</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1971</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D6">
+        <v>0.44</v>
+      </c>
+      <c r="E6">
+        <v>0.13983037966987874</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+    </row>
+    <row r="7" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1993</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E7">
+        <v>9.1193725871660011E-2</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="6">
         <v>2006</v>
       </c>
-      <c r="C5" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D5" s="6">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="E5" s="8">
-        <f>0.008</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1961</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2016</v>
-      </c>
-      <c r="D6" s="6">
-        <f>0.027*100/($C6-$B6)</f>
-        <v>4.9090909090909095E-2</v>
-      </c>
-      <c r="E6" s="6">
-        <f>0.022*100/($C6-$B6)</f>
-        <v>3.9999999999999994E-2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="14">
-        <v>1850</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1900</v>
-      </c>
-      <c r="D7" s="14">
-        <f t="shared" ref="D7:E7" si="0">0.014*100/50</f>
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="E7" s="14">
-        <f t="shared" si="0"/>
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="C8" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D8">
+        <v>0.62</v>
+      </c>
+      <c r="E8">
+        <v>3.3437699486275375E-2</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1901</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E9">
+        <v>0.13071100708271274</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="I1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -984,10 +2025,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A18" sqref="A18:R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -995,7 +2036,7 @@
     <col min="2" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,8 +2046,11 @@
       <c r="G1" s="2">
         <v>0.95416999999999996</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,15 +2058,23 @@
         <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>1.6449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.2896999999999998</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1045,103 +2097,210 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>1901</v>
+      </c>
+      <c r="C5">
+        <v>1990</v>
+      </c>
+      <c r="D5">
+        <v>0.33</v>
+      </c>
+      <c r="E5">
+        <v>8.8153935009271364E-2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>1971</v>
+      </c>
+      <c r="C6">
+        <v>2018</v>
+      </c>
+      <c r="D6">
+        <v>0.25</v>
+      </c>
+      <c r="E6">
+        <v>5.4716235522996023E-2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>1993</v>
+      </c>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+      <c r="D7">
+        <v>0.43</v>
+      </c>
+      <c r="E7">
+        <v>4.5596862935830026E-2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+    </row>
+    <row r="8" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="21">
         <v>2006</v>
       </c>
-      <c r="C5" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D5" s="11">
-        <f>0.077-0.01</f>
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="E5" s="6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1992</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="C8" s="21">
         <v>2018</v>
       </c>
-      <c r="D6" s="6">
-        <f>150/3610</f>
-        <v>4.1551246537396121E-2</v>
-      </c>
-      <c r="E6" s="6">
-        <f>(28/3610)</f>
-        <v>7.7562326869806096E-3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1900</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1983</v>
-      </c>
-      <c r="D7" s="6">
-        <f>75.1/3610</f>
-        <v>2.0803324099722992E-2</v>
-      </c>
-      <c r="E7" s="6">
-        <f>(29.4/3610)</f>
-        <v>8.1440443213296396E-3</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="14">
-        <v>1850</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1900</v>
-      </c>
-      <c r="D8" s="14">
-        <f t="shared" ref="D8:E8" si="0">0.014*100/50</f>
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="E8" s="14">
-        <f t="shared" si="0"/>
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="14"/>
+      <c r="D8">
+        <v>0.63</v>
+      </c>
+      <c r="E8">
+        <v>6.9915189834939356E-2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>1901</v>
+      </c>
+      <c r="C9">
+        <v>2018</v>
+      </c>
+      <c r="D9">
+        <v>0.35</v>
+      </c>
+      <c r="E9">
+        <v>6.9915189834939356E-2</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+    </row>
+    <row r="17" spans="12:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{37DEF5A8-E9F1-46C3-BAEE-FFDF254259B3}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{37DEF5A8-E9F1-46C3-BAEE-FFDF254259B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1152,15 +2311,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="R21" sqref="A15:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +2330,7 @@
         <v>0.95416999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1179,18 +2338,19 @@
         <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>1.6449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.2896999999999998</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,55 +2373,189 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1992</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D5" s="10">
-        <f>0.0076*100/(C5-B5)</f>
-        <v>3.04E-2</v>
-      </c>
-      <c r="E5" s="10">
-        <f>0.0039*100/(C5-B5)</f>
-        <v>1.5599999999999998E-2</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="14">
-        <v>1850</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1900</v>
-      </c>
-      <c r="D6" s="14">
-        <f t="shared" ref="D6:E6" si="0">0.014*100/50</f>
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="E6" s="14">
-        <f t="shared" si="0"/>
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="15"/>
+    <row r="5" spans="1:13" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1901</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1990</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <v>6.3835608110162034E-2</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1971</v>
+      </c>
+      <c r="C6" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.13983037966987871</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>1993</v>
+      </c>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+      <c r="D7">
+        <v>0.25</v>
+      </c>
+      <c r="E7">
+        <v>5.1676444660607355E-2</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>2006</v>
+      </c>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="D8">
+        <v>0.37</v>
+      </c>
+      <c r="E8">
+        <v>7.9034562422105367E-2</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>1901</v>
+      </c>
+      <c r="C9">
+        <v>2018</v>
+      </c>
+      <c r="D9">
+        <v>0.06</v>
+      </c>
+      <c r="E9">
+        <v>5.4716235522996017E-2</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="11"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="22" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+    </row>
+    <row r="24" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+    </row>
+    <row r="25" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+    </row>
+    <row r="29" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1274,45 +2568,45 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2">
         <v>0.95416999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>1.6449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+        <v>3.2896999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1335,26 +2629,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6">
         <v>1992</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>2017</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <f>94/3610</f>
         <v>2.6038781163434901E-2</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="13">
         <f>27/3610</f>
         <v>7.479224376731302E-3</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>46</v>
+      <c r="F5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1901</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1990</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>6.3835608110162034E-2</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1367,19 +2685,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2">
@@ -1387,22 +2705,22 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>1.6449</v>
+        <v>3.2896999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>45</v>
+      <c r="D3" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1429,25 +2747,48 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6">
         <v>1992</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>2017</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <f>-5/3610</f>
         <v>-1.3850415512465374E-3</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="13">
         <f>46/3610</f>
         <v>1.2742382271468145E-2</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>46</v>
+      <c r="F5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1901</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1990</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>6.3835608110162034E-2</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1457,19 +2798,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E700963A-2E81-4D98-8532-52392815F16C}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2">
@@ -1477,22 +2818,22 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>1.6449</v>
+        <v>3.2896999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>45</v>
+      <c r="D3" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1519,25 +2860,48 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6">
         <v>1992</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>2017</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <f>20/3610</f>
         <v>5.5401662049861496E-3</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="13">
         <f>15/3610</f>
         <v>4.1551246537396124E-3</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>46</v>
+      <c r="F5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1901</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1990</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>6.3835608110162034E-2</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1550,78 +2914,78 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="13"/>
+      <c r="B2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>39</v>
+      <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="13">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <f>(0.7+1.5+1.5+2)/4</f>
         <v>1.425</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <v>0.36</v>
       </c>
       <c r="E5">
@@ -1638,8 +3002,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>32</v>
+      <c r="A6" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1665,13 +3029,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="13">
+      <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="9">
         <f>(0.7+1.5+1.5+2)/4</f>
         <v>1.425</v>
       </c>
@@ -1692,8 +3056,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>40</v>
+      <c r="A8" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1719,13 +3083,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="13">
+      <c r="A9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9">
         <v>2</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="9">
         <f>(0.7+1.5+1.5+2)/4</f>
         <v>1.425</v>
       </c>
@@ -1746,8 +3110,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>41</v>
+      <c r="A10" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B10">
         <v>5</v>

--- a/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
+++ b/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Documents\Python\project01\data\raw_data\ComparisonEstimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEA2BED-8E2F-4325-B848-A28EDF64A899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C90560-9A49-40AE-AFFC-CA34DE2C206D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMSL" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -153,21 +153,9 @@
     <t>https://www.nature.com/articles/s41586-019-1071-0?TB_iframe=true&amp;width=921.6&amp;height=921.6</t>
   </si>
   <si>
-    <t>20c</t>
-  </si>
-  <si>
     <t>ar6 table 9.5</t>
   </si>
   <si>
-    <t>not really wais, ais</t>
-  </si>
-  <si>
-    <t>not really eais, ais</t>
-  </si>
-  <si>
-    <t>not really pen but, ais</t>
-  </si>
-  <si>
     <t>Thermal expansion</t>
   </si>
   <si>
@@ -241,16 +229,16 @@
   </si>
   <si>
     <t>ar6</t>
+  </si>
+  <si>
+    <t>Does this include the periphery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -297,13 +285,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -345,7 +326,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,11 +339,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -373,12 +349,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -386,28 +361,26 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -421,12 +394,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -679,7 +651,7 @@
       <c r="G2" s="2">
         <v>3.2896999999999998</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -687,13 +659,13 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -717,17 +689,17 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
         <v>1901</v>
@@ -735,26 +707,26 @@
       <c r="C5" s="1">
         <v>1990</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="21">
         <v>1.35</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="21">
         <v>0.34653615831230811</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
+      <c r="F5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1">
         <v>1971</v>
@@ -762,58 +734,58 @@
       <c r="C6" s="1">
         <v>2018</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="21">
         <v>2.33</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="21">
         <v>0.47724716539502088</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+      <c r="F6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="6">
+        <v>45</v>
+      </c>
+      <c r="B7" s="5">
         <v>1993</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>2018</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>3.25</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>0.22190473295437274</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="F7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="6">
+        <v>47</v>
+      </c>
+      <c r="B8" s="5">
         <v>2006</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>2018</v>
       </c>
       <c r="D8">
@@ -822,25 +794,25 @@
       <c r="E8">
         <v>0.29181992278931213</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
+      <c r="F8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="6">
+        <v>48</v>
+      </c>
+      <c r="B9" s="5">
         <v>1901</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>2018</v>
       </c>
       <c r="D9">
@@ -849,16 +821,16 @@
       <c r="E9">
         <v>0.27054138675259143</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
+      <c r="F9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
     </row>
     <row r="10" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -870,105 +842,105 @@
       <c r="C10" s="1">
         <v>1900</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>0.014*1000/50</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f>0.014*1000/50</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
     </row>
     <row r="17" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
     </row>
     <row r="18" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q18" s="23"/>
+      <c r="Q18" s="21"/>
     </row>
     <row r="19" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q19" s="23"/>
+      <c r="Q19" s="21"/>
     </row>
     <row r="20" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q20" s="23"/>
+      <c r="Q20" s="21"/>
     </row>
     <row r="21" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q21" s="23"/>
+      <c r="Q21" s="21"/>
     </row>
     <row r="22" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q22" s="18"/>
+      <c r="Q22" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -990,431 +962,431 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="7.85546875" style="16" customWidth="1"/>
-    <col min="5" max="9" width="7.85546875" style="18" customWidth="1"/>
-    <col min="10" max="19" width="7.85546875" style="16" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="4" width="7.85546875" style="14" customWidth="1"/>
+    <col min="5" max="9" width="7.85546875" style="16" customWidth="1"/>
+    <col min="10" max="19" width="7.85546875" style="14" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="L1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="25" t="s">
+      <c r="N1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="25" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="25"/>
+      <c r="R1" s="23"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>43</v>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5">
         <v>1901</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>1990</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="23">
+      <c r="D3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="21">
         <v>0.36</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="21">
         <f>ABS(0.17-0.54)/$B$19</f>
         <v>0.11247226190838071</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="21">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="21">
         <f>ABS(0.34-0.82)/$B$19</f>
         <v>0.14590996139465603</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="21">
         <v>0.33</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="21">
         <f>ABS(0.18-0.47)/$B$19</f>
         <v>8.8153935009271364E-2</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="21">
         <v>0</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="21">
         <f>ABS(-0.1-0.11)/$B$19</f>
         <v>6.3835608110162034E-2</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="21">
         <v>-0.15</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="21">
         <f>ABS(-0.35-0.04)/$B$19</f>
         <v>0.11855184363315803</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="21">
         <v>1.1100000000000001</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="21">
         <f>ABS(0.71-1.52)/$B$19</f>
         <v>0.24622305985348211</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="21">
         <v>1.35</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="21">
         <f>ABS(0.78-1.92)/$B$19</f>
         <v>0.34653615831230811</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5">
         <v>1971</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>2018</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="D4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="21">
         <v>1.01</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="22">
         <f>ABS(0.73-1.29)/$B$19</f>
         <v>0.17022828829376541</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="21">
         <v>0.44</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="21">
         <f>ABS(0.21-0.67)/$B$19</f>
         <v>0.13983037966987874</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="21">
         <v>0.25</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="21">
         <f>ABS(0.16-0.34)/$B$19</f>
         <v>5.4716235522996023E-2</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="21">
         <f>ABS(-0.09-0.37)/$B$19</f>
         <v>0.13983037966987871</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="21">
         <v>0.15</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="21">
         <f>ABS(-0.05-0.36)/$B$19</f>
         <v>0.12463142535793537</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="21">
         <v>2</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="21">
         <f>ABS(1.52-2.49)/$B$19</f>
         <v>0.29485971365170083</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="21">
         <v>2.33</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="21">
         <f>ABS(1.55-3.12)/$B$19</f>
         <v>0.47724716539502088</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="5">
         <v>1993</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>2018</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="D5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="21">
         <v>1.31</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="22">
         <f>ABS(0.95-1.66)/$B$19</f>
         <v>0.21582515122959539</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="21">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="21">
         <f>ABS(0.4-0.7)/$B$19</f>
         <v>9.1193725871660011E-2</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="21">
         <v>0.43</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="21">
         <f>ABS(0.36-0.51)/$B$19</f>
         <v>4.5596862935830026E-2</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="21">
         <v>0.25</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="21">
         <f>ABS(0.16-0.33)/$B$19</f>
         <v>5.1676444660607355E-2</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="21">
         <v>0.31</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="21">
         <f>ABS(0.13-0.49)/$B$19</f>
         <v>0.10943247104599203</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="21">
         <v>2.85</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="21">
         <f>ABS(2.41-3.29)/$B$19</f>
         <v>0.26750159589020273</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="21">
         <v>3.25</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="21">
         <f>ABS(2.88-3.61)/$B$19</f>
         <v>0.22190473295437274</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5">
         <v>2006</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>2018</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="D6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="21">
         <v>1.39</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="21">
         <f>ABS(0.74-2.05)/$B$19</f>
         <v>0.39821260297291544</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="21">
         <v>0.62</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="21">
         <f>ABS(0.57-0.68)/$B$19</f>
         <v>3.3437699486275375E-2</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="21">
         <v>0.63</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="21">
         <f>ABS(0.51-0.74)/$B$19</f>
         <v>6.9915189834939356E-2</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="21">
         <v>0.37</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="21">
         <f>ABS(0.24-0.5)/$B$19</f>
         <v>7.9034562422105367E-2</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="21">
         <v>0.6</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="21">
         <f>ABS(0.32-0.88)/$B$19</f>
         <v>0.17022828829376541</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="21">
         <v>3.61</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="21">
         <f>ABS(2.88-4.35)/$B$19</f>
         <v>0.44684925677113407</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="21">
         <v>3.69</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="21">
         <f>ABS(3.21-4.17)/$B$19</f>
         <v>0.29181992278931213</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="A7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5">
         <v>1901</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>2018</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="D7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="21">
         <v>0.54</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="21">
         <f>ABS(0.4 -0.68)/$B$19</f>
         <v>8.5114144146882703E-2</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="21">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="21">
         <f>ABS(0.36-0.79)/$B$19</f>
         <v>0.13071100708271274</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="21">
         <v>0.35</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="21">
         <f>ABS(0.23-0.46)/$B$19</f>
         <v>6.9915189834939356E-2</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="21">
         <v>0.06</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="21">
         <f>ABS(-0.03-0.15)/$B$19</f>
         <v>5.4716235522996017E-2</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="21">
         <v>-0.11</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="21">
         <f>ABS(-0.39-0.17)/$B$19</f>
         <v>0.17022828829376541</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="21">
         <v>1.41</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="21">
         <f>ABS(1-1.82)/$B$19</f>
         <v>0.24926285071587079</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="21">
         <v>1.73</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="21">
         <f>ABS(1.28-2.17)/$B$19</f>
         <v>0.27054138675259143</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
@@ -1424,17 +1396,17 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
@@ -1444,15 +1416,15 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
@@ -1471,8 +1443,8 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
@@ -1490,62 +1462,62 @@
       <c r="R11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="2">
@@ -1553,20 +1525,20 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>63</v>
+      <c r="A21" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>61</v>
+      <c r="A22" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="E23" s="20"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="E24" s="20"/>
+      <c r="E24" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1610,7 +1582,7 @@
       <c r="G2" s="2">
         <v>3.2896999999999998</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1639,17 +1611,17 @@
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>1901</v>
@@ -1664,20 +1636,20 @@
         <v>0.11247226190838071</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>1971</v>
@@ -1691,20 +1663,20 @@
       <c r="E6">
         <v>0.17022828829376541</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-    </row>
-    <row r="7" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>1993</v>
@@ -1718,16 +1690,16 @@
       <c r="E7">
         <v>0.21582515122959539</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>62</v>
+      <c r="F7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>2006</v>
@@ -1744,7 +1716,7 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>1901</v>
@@ -1771,7 +1743,7 @@
   </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1787,7 +1759,7 @@
       <c r="G1" s="2">
         <v>0.95416999999999996</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1804,7 +1776,7 @@
       <c r="G2" s="2">
         <v>3.2896999999999998</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1812,8 +1784,8 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="21" t="s">
-        <v>38</v>
+      <c r="I3" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1838,22 +1810,22 @@
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="5">
         <v>1901</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1990</v>
       </c>
       <c r="D5">
@@ -1862,26 +1834,26 @@
       <c r="E5">
         <v>0.14590996139465603</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>66</v>
+      <c r="F5" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="5">
         <v>1971</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>2018</v>
       </c>
       <c r="D6">
@@ -1890,25 +1862,25 @@
       <c r="E6">
         <v>0.13983037966987874</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-    </row>
-    <row r="7" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="F6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+    </row>
+    <row r="7" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="5">
         <v>1993</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>2018</v>
       </c>
       <c r="D7">
@@ -1917,19 +1889,19 @@
       <c r="E7">
         <v>9.1193725871660011E-2</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="22"/>
+      <c r="F7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="5">
         <v>2006</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>2018</v>
       </c>
       <c r="D8">
@@ -1938,25 +1910,25 @@
       <c r="E8">
         <v>3.3437699486275375E-2</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
+      <c r="F8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="A9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="5">
         <v>1901</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>2018</v>
       </c>
       <c r="D9">
@@ -1965,52 +1937,52 @@
       <c r="E9">
         <v>0.13071100708271274</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
+      <c r="F9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2028,7 +2000,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:R24"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2036,7 +2008,7 @@
     <col min="2" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2046,11 +2018,11 @@
       <c r="G1" s="2">
         <v>0.95416999999999996</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2061,15 +2033,23 @@
         <v>3.2896999999999998</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="7" t="s">
+      <c r="I2">
+        <f>75.1/361</f>
+        <v>0.20803324099722989</v>
+      </c>
+      <c r="J2" s="12">
+        <f>29.4/361</f>
+        <v>8.1440443213296396E-2</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="L2" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2099,7 +2079,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>1901</v>
@@ -2114,20 +2094,20 @@
         <v>8.8153935009271364E-2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>1971</v>
@@ -2141,20 +2121,20 @@
       <c r="E6">
         <v>5.4716235522996023E-2</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="F6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>1993</v>
@@ -2168,25 +2148,25 @@
       <c r="E7">
         <v>4.5596862935830026E-2</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-    </row>
-    <row r="8" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="21">
+      <c r="F7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+    </row>
+    <row r="8" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="19">
         <v>2006</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>2018</v>
       </c>
       <c r="D8">
@@ -2195,13 +2175,13 @@
       <c r="E8">
         <v>6.9915189834939356E-2</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>64</v>
+      <c r="F8" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>1901</v>
@@ -2215,92 +2195,93 @@
       <c r="E9">
         <v>6.9915189834939356E-2</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="F9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="A10" s="12"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
     </row>
     <row r="17" spans="12:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{37DEF5A8-E9F1-46C3-BAEE-FFDF254259B3}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{37DEF5A8-E9F1-46C3-BAEE-FFDF254259B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2340,7 +2321,7 @@
       <c r="G2" s="2">
         <v>3.2896999999999998</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2348,7 +2329,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2373,49 +2354,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="21">
+    <row r="5" spans="1:13" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="19">
         <v>1901</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>1990</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>0</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>6.3835608110162034E-2</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="21">
+      <c r="F5" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="19">
         <v>1971</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>2018</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>0.13983037966987871</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>64</v>
+      <c r="F6" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>1993</v>
@@ -2429,13 +2410,13 @@
       <c r="E7">
         <v>5.1676444660607355E-2</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>64</v>
+      <c r="F7" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>2006</v>
@@ -2449,13 +2430,13 @@
       <c r="E8">
         <v>7.9034562422105367E-2</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>64</v>
+      <c r="F8" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>1901</v>
@@ -2469,93 +2450,93 @@
       <c r="E9">
         <v>5.4716235522996017E-2</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>64</v>
+      <c r="F9" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="11"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
     </row>
     <row r="22" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
     </row>
     <row r="23" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
     </row>
     <row r="24" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
     </row>
     <row r="27" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
     </row>
     <row r="28" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
     </row>
     <row r="29" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2568,45 +2549,45 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2">
         <v>0.95416999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="2">
         <v>3.2896999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2629,50 +2610,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1992</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>2017</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <f>94/3610</f>
         <v>2.6038781163434901E-2</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <f>27/3610</f>
         <v>7.479224376731302E-3</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1901</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1990</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>6.3835608110162034E-2</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2685,19 +2642,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2">
@@ -2705,10 +2662,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="2">
@@ -2716,10 +2673,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2747,48 +2704,25 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1992</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>2017</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <f>-5/3610</f>
         <v>-1.3850415512465374E-3</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <f>46/3610</f>
         <v>1.2742382271468145E-2</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1901</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1990</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>6.3835608110162034E-2</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2798,19 +2732,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E700963A-2E81-4D98-8532-52392815F16C}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2">
@@ -2818,10 +2752,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="2">
@@ -2829,10 +2763,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2860,48 +2794,25 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1992</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>2017</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <f>20/3610</f>
         <v>5.5401662049861496E-3</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <f>15/3610</f>
         <v>4.1551246537396124E-3</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1901</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1990</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>6.3835608110162034E-2</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2925,67 +2836,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="8"/>
       <c r="E1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f>(0.7+1.5+1.5+2)/4</f>
         <v>1.425</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>0.36</v>
       </c>
       <c r="E5">
@@ -3002,7 +2913,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B6">
@@ -3029,13 +2940,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <f>(0.7+1.5+1.5+2)/4</f>
         <v>1.425</v>
       </c>
@@ -3056,7 +2967,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B8">
@@ -3083,13 +2994,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>2</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f>(0.7+1.5+1.5+2)/4</f>
         <v>1.425</v>
       </c>
@@ -3110,7 +3021,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B10">

--- a/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
+++ b/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Documents\Python\project01\data\raw_data\ComparisonEstimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C90560-9A49-40AE-AFFC-CA34DE2C206D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BCE873-05FC-4628-B3F3-E0F4FE6B7E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="810" windowWidth="24585" windowHeight="14790" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMSL" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="63">
   <si>
     <t>#</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>IMBIE 2, https://www.nature.com/articles/s41586-018-0179-y</t>
-  </si>
-  <si>
-    <t>m/century</t>
   </si>
   <si>
     <t>IMBIE 2, https://www.nature.com/articles/s41586-018-0179-y/tables/1</t>
@@ -699,7 +696,7 @@
     </row>
     <row r="5" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1">
         <v>1901</v>
@@ -714,7 +711,7 @@
         <v>0.34653615831230811</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
@@ -726,7 +723,7 @@
     </row>
     <row r="6" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>1971</v>
@@ -741,7 +738,7 @@
         <v>0.47724716539502088</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
@@ -753,7 +750,7 @@
     </row>
     <row r="7" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5">
         <v>1993</v>
@@ -768,7 +765,7 @@
         <v>0.22190473295437274</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
@@ -780,7 +777,7 @@
     </row>
     <row r="8" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5">
         <v>2006</v>
@@ -795,7 +792,7 @@
         <v>0.29181992278931213</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
@@ -807,7 +804,7 @@
     </row>
     <row r="9" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5">
         <v>1901</v>
@@ -822,7 +819,7 @@
         <v>0.27054138675259143</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
@@ -957,7 +954,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -970,49 +967,49 @@
   <sheetData>
     <row r="1" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
       <c r="D1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>54</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>55</v>
       </c>
       <c r="P1" s="23"/>
       <c r="Q1" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R1" s="23"/>
     </row>
@@ -1026,51 +1023,51 @@
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>40</v>
-      </c>
       <c r="H2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>40</v>
-      </c>
       <c r="J2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>40</v>
-      </c>
       <c r="L2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="21" t="s">
-        <v>40</v>
-      </c>
       <c r="N2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="21" t="s">
-        <v>40</v>
-      </c>
       <c r="P2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="21" t="s">
-        <v>40</v>
-      </c>
       <c r="R2" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="5">
         <v>1901</v>
@@ -1079,7 +1076,7 @@
         <v>1990</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="21">
         <v>0.36</v>
@@ -1133,7 +1130,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="5">
         <v>1971</v>
@@ -1142,7 +1139,7 @@
         <v>2018</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="21">
         <v>1.01</v>
@@ -1196,7 +1193,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5">
         <v>1993</v>
@@ -1205,7 +1202,7 @@
         <v>2018</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="21">
         <v>1.31</v>
@@ -1259,7 +1256,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5">
         <v>2006</v>
@@ -1268,7 +1265,7 @@
         <v>2018</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="21">
         <v>1.39</v>
@@ -1322,7 +1319,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5">
         <v>1901</v>
@@ -1331,7 +1328,7 @@
         <v>2018</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="21">
         <v>0.54</v>
@@ -1526,12 +1523,12 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -1558,7 +1555,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1569,7 +1566,7 @@
         <v>0.95416999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1584,12 +1581,12 @@
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1619,9 +1616,9 @@
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>1901</v>
@@ -1636,7 +1633,7 @@
         <v>0.11247226190838071</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="8"/>
       <c r="K5" s="13"/>
@@ -1647,9 +1644,9 @@
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1971</v>
@@ -1664,7 +1661,7 @@
         <v>0.17022828829376541</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -1674,9 +1671,9 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>1993</v>
@@ -1691,15 +1688,15 @@
         <v>0.21582515122959539</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>2006</v>
@@ -1716,7 +1713,7 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>1901</v>
@@ -1749,7 +1746,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1763,7 +1760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1777,18 +1774,18 @@
         <v>3.2896999999999998</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1818,9 +1815,9 @@
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5">
         <v>1901</v>
@@ -1835,7 +1832,7 @@
         <v>0.14590996139465603</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1"/>
       <c r="M5" s="13"/>
@@ -1846,9 +1843,9 @@
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="5">
         <v>1971</v>
@@ -1863,7 +1860,7 @@
         <v>0.13983037966987874</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -1873,9 +1870,9 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5">
         <v>1993</v>
@@ -1890,13 +1887,13 @@
         <v>9.1193725871660011E-2</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5">
         <v>2006</v>
@@ -1911,7 +1908,7 @@
         <v>3.3437699486275375E-2</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
@@ -1923,7 +1920,7 @@
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5">
         <v>1901</v>
@@ -1938,7 +1935,7 @@
         <v>0.13071100708271274</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
@@ -2045,7 +2042,7 @@
         <v>16</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -2054,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,9 +2074,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>1901</v>
@@ -2094,7 +2091,7 @@
         <v>8.8153935009271364E-2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1"/>
       <c r="L5" s="21"/>
@@ -2105,9 +2102,9 @@
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1971</v>
@@ -2122,7 +2119,7 @@
         <v>5.4716235522996023E-2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
@@ -2132,9 +2129,9 @@
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>1993</v>
@@ -2149,7 +2146,7 @@
         <v>4.5596862935830026E-2</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -2159,9 +2156,9 @@
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
     </row>
-    <row r="8" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="19">
         <v>2006</v>
@@ -2176,12 +2173,12 @@
         <v>6.9915189834939356E-2</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>1901</v>
@@ -2196,7 +2193,7 @@
         <v>6.9915189834939356E-2</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
@@ -2356,7 +2353,7 @@
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="19">
         <v>1901</v>
@@ -2371,12 +2368,12 @@
         <v>6.3835608110162034E-2</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="19">
         <v>1971</v>
@@ -2391,12 +2388,12 @@
         <v>0.13983037966987871</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>1993</v>
@@ -2411,12 +2408,12 @@
         <v>5.1676444660607355E-2</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>2006</v>
@@ -2431,12 +2428,12 @@
         <v>7.9034562422105367E-2</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>1901</v>
@@ -2451,7 +2448,7 @@
         <v>5.4716235522996017E-2</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2552,7 +2549,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2583,9 +2580,7 @@
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2621,15 +2616,15 @@
         <v>2017</v>
       </c>
       <c r="D5" s="11">
-        <f>94/3610</f>
-        <v>2.6038781163434901E-2</v>
+        <f>94/361</f>
+        <v>0.26038781163434904</v>
       </c>
       <c r="E5" s="11">
-        <f>27/3610</f>
-        <v>7.479224376731302E-3</v>
+        <f>27/361</f>
+        <v>7.4792243767313013E-2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2645,7 +2640,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2676,9 +2671,7 @@
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2714,15 +2707,15 @@
         <v>2017</v>
       </c>
       <c r="D5" s="11">
-        <f>-5/3610</f>
-        <v>-1.3850415512465374E-3</v>
+        <f>-5/361</f>
+        <v>-1.3850415512465374E-2</v>
       </c>
       <c r="E5" s="11">
-        <f>46/3610</f>
-        <v>1.2742382271468145E-2</v>
+        <f>46/361</f>
+        <v>0.12742382271468145</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2734,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E700963A-2E81-4D98-8532-52392815F16C}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2766,9 +2759,7 @@
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2804,15 +2795,15 @@
         <v>2017</v>
       </c>
       <c r="D5" s="11">
-        <f>20/3610</f>
-        <v>5.5401662049861496E-3</v>
+        <f>20/361</f>
+        <v>5.5401662049861494E-2</v>
       </c>
       <c r="E5" s="11">
-        <f>15/3610</f>
-        <v>4.1551246537396124E-3</v>
+        <f>15/361</f>
+        <v>4.1551246537396121E-2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA05C6A7-BA3D-4777-877F-5B2D19C566E2}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -2852,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="8"/>
     </row>

--- a/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
+++ b/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Documents\Python\project01\data\raw_data\ComparisonEstimates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ggjlb_bristol_ac_uk/Documents/docs/projects/CMIP6 Hackathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BCE873-05FC-4628-B3F3-E0F4FE6B7E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{62BCE873-05FC-4628-B3F3-E0F4FE6B7E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCF015DE-E9A2-4B60-B73B-9FDF77ECB046}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="810" windowWidth="24585" windowHeight="14790" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28995" yWindow="16830" windowWidth="21525" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMSL" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Does this include the periphery</t>
+  </si>
+  <si>
+    <t>Frederikse</t>
   </si>
 </sst>
 </file>
@@ -613,58 +616,61 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="11.140625" customWidth="1"/>
+    <col min="2" max="4" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>0.95416999999999996</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>3.2896999999999998</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
-    </row>
-    <row r="4" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="R3" s="21"/>
+    </row>
+    <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -678,23 +684,26 @@
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="21"/>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
-    </row>
-    <row r="5" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="R4" s="21"/>
+    </row>
+    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -704,24 +713,27 @@
       <c r="C5" s="1">
         <v>1990</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="5">
         <v>1.35</v>
       </c>
       <c r="E5" s="21">
+        <v>1.35</v>
+      </c>
+      <c r="F5" s="21">
         <v>0.34653615831230811</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
-    </row>
-    <row r="6" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="R5" s="21"/>
+    </row>
+    <row r="6" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -731,24 +743,27 @@
       <c r="C6" s="1">
         <v>2018</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="5">
+        <v>2.31</v>
+      </c>
+      <c r="E6" s="21">
         <v>2.33</v>
       </c>
-      <c r="E6" s="21">
+      <c r="F6" s="21">
         <v>0.47724716539502088</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
-    </row>
-    <row r="7" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="R6" s="21"/>
+    </row>
+    <row r="7" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -758,24 +773,27 @@
       <c r="C7" s="5">
         <v>2018</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="5">
+        <v>3.78</v>
+      </c>
+      <c r="E7" s="16">
         <v>3.25</v>
       </c>
-      <c r="E7" s="16">
+      <c r="F7" s="16">
         <v>0.22190473295437274</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="R7" s="21"/>
+    </row>
+    <row r="8" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -785,24 +803,27 @@
       <c r="C8" s="5">
         <v>2018</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
+        <v>3.89</v>
+      </c>
+      <c r="E8">
         <v>3.69</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.29181992278931213</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
-    </row>
-    <row r="9" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="R8" s="21"/>
+    </row>
+    <row r="9" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -812,24 +833,27 @@
       <c r="C9" s="5">
         <v>2018</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
+        <v>1.77</v>
+      </c>
+      <c r="E9">
         <v>1.73</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.27054138675259143</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
-    </row>
-    <row r="10" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="R9" s="21"/>
+    </row>
+    <row r="10" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -839,110 +863,111 @@
       <c r="C10" s="1">
         <v>1900</v>
       </c>
-      <c r="D10" s="5">
-        <f>0.014*1000/50</f>
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5">
         <f>0.014*1000/50</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="5">
+        <f>0.014*1000/50</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K11" s="21"/>
+      <c r="R10" s="21"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K12" s="21"/>
+      <c r="R11" s="21"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K13" s="21"/>
+      <c r="R12" s="21"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K14" s="21"/>
+      <c r="R13" s="21"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K15" s="21"/>
+      <c r="R14" s="21"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K16" s="21"/>
+      <c r="R15" s="21"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
-    </row>
-    <row r="17" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K17" s="21"/>
+      <c r="R16" s="21"/>
+    </row>
+    <row r="17" spans="12:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
-    </row>
-    <row r="18" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q19" s="21"/>
-    </row>
-    <row r="20" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q20" s="21"/>
-    </row>
-    <row r="21" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q21" s="21"/>
-    </row>
-    <row r="22" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q22" s="16"/>
+      <c r="R17" s="21"/>
+    </row>
+    <row r="18" spans="12:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R18" s="21"/>
+    </row>
+    <row r="19" spans="12:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R19" s="21"/>
+    </row>
+    <row r="20" spans="12:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R20" s="21"/>
+    </row>
+    <row r="21" spans="12:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R21" s="21"/>
+    </row>
+    <row r="22" spans="12:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R22" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{F467BD4C-9F4B-4DD2-817D-8AC186017B59}"/>
+    <hyperlink ref="I1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{F467BD4C-9F4B-4DD2-817D-8AC186017B59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1547,46 +1572,49 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:R23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>0.95416999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>3.2896999999999998</v>
       </c>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1600,23 +1628,26 @@
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="13"/>
       <c r="L4" s="13"/>
-      <c r="M4" s="15"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
-    </row>
-    <row r="5" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1627,24 +1658,27 @@
         <v>1990</v>
       </c>
       <c r="D5">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="E5">
         <v>0.36</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.11247226190838071</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="K5" s="13"/>
+      <c r="H5" s="8"/>
       <c r="L5" s="13"/>
-      <c r="M5" s="15"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
-    </row>
-    <row r="6" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1655,23 +1689,26 @@
         <v>2018</v>
       </c>
       <c r="D6">
+        <v>0.871</v>
+      </c>
+      <c r="E6">
         <v>1.01</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.17022828829376541</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="14"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="16"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
-    </row>
-    <row r="7" spans="1:17" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" spans="1:18" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1682,19 +1719,22 @@
         <v>2018</v>
       </c>
       <c r="D7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E7">
         <v>1.31</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.21582515122959539</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1705,13 +1745,16 @@
         <v>2018</v>
       </c>
       <c r="D8">
+        <v>1.02</v>
+      </c>
+      <c r="E8">
         <v>1.39</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.39821260297291544</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1722,9 +1765,12 @@
         <v>2018</v>
       </c>
       <c r="D9">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E9">
         <v>0.54</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>8.5114144146882703E-2</v>
       </c>
     </row>
@@ -1738,54 +1784,57 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>0.95416999999999996</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>3.2896999999999998</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="J3" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,23 +1848,26 @@
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="13"/>
       <c r="N4" s="13"/>
-      <c r="O4" s="15"/>
+      <c r="O4" s="13"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
-    </row>
-    <row r="5" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="T4" s="15"/>
+    </row>
+    <row r="5" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>40</v>
       </c>
@@ -1825,25 +1877,28 @@
       <c r="C5" s="5">
         <v>1990</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="E5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.14590996139465603</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="M5" s="13"/>
+      <c r="H5" s="1"/>
       <c r="N5" s="13"/>
-      <c r="O5" s="15"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
-    </row>
-    <row r="6" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="T5" s="15"/>
+    </row>
+    <row r="6" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>42</v>
       </c>
@@ -1853,24 +1908,27 @@
       <c r="C6" s="5">
         <v>2018</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E6">
         <v>0.44</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.13983037966987874</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="14"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="16"/>
+      <c r="O6" s="14"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
-    </row>
-    <row r="7" spans="1:19" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="T6" s="16"/>
+    </row>
+    <row r="7" spans="1:20" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>44</v>
       </c>
@@ -1880,18 +1938,21 @@
       <c r="C7" s="5">
         <v>2018</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="E7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9.1193725871660011E-2</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>46</v>
       </c>
@@ -1901,24 +1962,27 @@
       <c r="C8" s="5">
         <v>2018</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="E8">
         <v>0.62</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3.3437699486275375E-2</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="14"/>
       <c r="N8" s="14"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="17"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T8" s="16"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>47</v>
       </c>
@@ -1928,62 +1992,65 @@
       <c r="C9" s="5">
         <v>2018</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="E9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.13071100708271274</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="14"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="16"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M10" s="14"/>
+      <c r="T9" s="16"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N10" s="14"/>
-      <c r="O10" s="16"/>
+      <c r="O10" s="14"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M11" s="14"/>
+      <c r="T10" s="16"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N11" s="14"/>
-      <c r="O11" s="16"/>
+      <c r="O11" s="14"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M12" s="14"/>
+      <c r="T11" s="16"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N12" s="14"/>
-      <c r="O12" s="16"/>
+      <c r="O12" s="14"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M13" s="14"/>
+      <c r="T12" s="16"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N13" s="14"/>
-      <c r="O13" s="16"/>
+      <c r="O13" s="14"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="J1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1994,64 +2061,67 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="11.140625" customWidth="1"/>
+    <col min="2" max="4" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>0.95416999999999996</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>3.2896999999999998</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2">
+      <c r="I2" s="1"/>
+      <c r="J2">
         <f>75.1/361</f>
         <v>0.20803324099722989</v>
       </c>
-      <c r="J2" s="12">
+      <c r="K2" s="12">
         <f>29.4/361</f>
         <v>8.1440443213296396E-2</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2065,16 +2135,19 @@
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2085,24 +2158,27 @@
         <v>1990</v>
       </c>
       <c r="D5">
+        <v>0.44</v>
+      </c>
+      <c r="E5">
         <v>0.33</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>8.8153935009271364E-2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="L5" s="21"/>
+      <c r="H5" s="1"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2113,23 +2189,26 @@
         <v>2018</v>
       </c>
       <c r="D6">
+        <v>0.35</v>
+      </c>
+      <c r="E6">
         <v>0.25</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5.4716235522996023E-2</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
-    </row>
-    <row r="7" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S6" s="21"/>
+    </row>
+    <row r="7" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2140,23 +2219,26 @@
         <v>2018</v>
       </c>
       <c r="D7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E7">
         <v>0.43</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.5596862935830026E-2</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
-    </row>
-    <row r="8" spans="1:18" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S7" s="21"/>
+    </row>
+    <row r="8" spans="1:19" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>46</v>
       </c>
@@ -2166,17 +2248,20 @@
       <c r="C8" s="19">
         <v>2018</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="19">
+        <v>0.79</v>
+      </c>
+      <c r="E8">
         <v>0.63</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>6.9915189834939356E-2</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2187,98 +2272,101 @@
         <v>2018</v>
       </c>
       <c r="D9">
+        <v>0.46</v>
+      </c>
+      <c r="E9">
         <v>0.35</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>6.9915189834939356E-2</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="21"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
-      <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L11" s="21"/>
+      <c r="S10" s="21"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L12" s="21"/>
+      <c r="S11" s="21"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L13" s="21"/>
+      <c r="S12" s="21"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L14" s="21"/>
+      <c r="S13" s="21"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L15" s="21"/>
+      <c r="S14" s="21"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L16" s="21"/>
+      <c r="S15" s="21"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
-    </row>
-    <row r="17" spans="12:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L17" s="21"/>
+      <c r="S16" s="21"/>
+    </row>
+    <row r="17" spans="13:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{37DEF5A8-E9F1-46C3-BAEE-FFDF254259B3}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{37DEF5A8-E9F1-46C3-BAEE-FFDF254259B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2289,46 +2377,49 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="A15:R21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>0.95416999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>3.2896999999999998</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2342,16 +2433,19 @@
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>40</v>
       </c>
@@ -2362,16 +2456,19 @@
         <v>1990</v>
       </c>
       <c r="D5" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="19">
         <v>0</v>
       </c>
-      <c r="E5" s="19">
+      <c r="F5" s="19">
         <v>6.3835608110162034E-2</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>42</v>
       </c>
@@ -2382,16 +2479,19 @@
         <v>2018</v>
       </c>
       <c r="D6" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E6" s="19">
+      <c r="F6" s="19">
         <v>0.13983037966987871</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2402,16 +2502,19 @@
         <v>2018</v>
       </c>
       <c r="D7">
+        <v>0.34</v>
+      </c>
+      <c r="E7">
         <v>0.25</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.1676444660607355E-2</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2422,16 +2525,19 @@
         <v>2018</v>
       </c>
       <c r="D8">
+        <v>0.52</v>
+      </c>
+      <c r="E8">
         <v>0.37</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7.9034562422105367E-2</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2442,98 +2548,101 @@
         <v>2018</v>
       </c>
       <c r="D9">
+        <v>0.11</v>
+      </c>
+      <c r="E9">
         <v>0.06</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>5.4716235522996017E-2</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="13"/>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H14" s="13"/>
-      <c r="I14" s="15"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
-    </row>
-    <row r="22" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G22" s="14"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="22" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H22" s="14"/>
-      <c r="I22" s="16"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G23" s="14"/>
+      <c r="N22" s="16"/>
+    </row>
+    <row r="23" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H23" s="14"/>
-      <c r="I23" s="16"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G24" s="14"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H24" s="14"/>
-      <c r="I24" s="16"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G25" s="14"/>
+      <c r="N24" s="16"/>
+    </row>
+    <row r="25" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H25" s="14"/>
-      <c r="I25" s="16"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="14"/>
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H26" s="14"/>
-      <c r="I26" s="16"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
-    </row>
-    <row r="27" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G27" s="14"/>
+      <c r="N26" s="16"/>
+    </row>
+    <row r="27" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H27" s="14"/>
-      <c r="I27" s="16"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-    </row>
-    <row r="28" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G28" s="14"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H28" s="14"/>
-      <c r="I28" s="18"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
-    </row>
-    <row r="29" spans="7:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G29" s="14"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="29" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H29" s="14"/>
-      <c r="I29" s="18"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2815,7 +2924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA05C6A7-BA3D-4777-877F-5B2D19C566E2}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
+++ b/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ggjlb_bristol_ac_uk/Documents/docs/projects/CMIP6 Hackathon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Documents\Python\project01\data\raw_data\ComparisonEstimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{62BCE873-05FC-4628-B3F3-E0F4FE6B7E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCF015DE-E9A2-4B60-B73B-9FDF77ECB046}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2F90A5-CE20-4CC2-8F70-1462FEB0618C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28995" yWindow="16830" windowWidth="21525" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMSL" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>Frederikse</t>
+  </si>
+  <si>
+    <t>FrederikseRate</t>
+  </si>
+  <si>
+    <t>#1901-2018</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -618,8 +630,8 @@
   </sheetPr>
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -681,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -825,7 +837,7 @@
     </row>
     <row r="9" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B9" s="5">
         <v>1901</v>
@@ -1575,7 +1587,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1625,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -1756,7 +1768,7 @@
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>1901</v>
@@ -1787,7 +1799,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1845,7 +1857,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -1983,8 +1995,8 @@
       <c r="T8" s="16"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>47</v>
+      <c r="A9" t="s">
+        <v>65</v>
       </c>
       <c r="B9" s="5">
         <v>1901</v>
@@ -2064,7 +2076,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2132,7 +2144,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -2263,7 +2275,7 @@
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>1901</v>
@@ -2380,7 +2392,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2430,7 +2442,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -2539,7 +2551,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>1901</v>
@@ -2658,7 +2670,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2922,10 +2934,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA05C6A7-BA3D-4777-877F-5B2D19C566E2}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2935,7 +2947,7 @@
     <col min="4" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2947,7 +2959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2956,13 +2968,16 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
@@ -2985,7 +3000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -3012,7 +3027,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
@@ -3039,7 +3054,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
@@ -3066,7 +3081,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
@@ -3092,8 +3107,11 @@
       <c r="H8">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -3120,7 +3138,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>30</v>
       </c>

--- a/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
+++ b/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Documents\Python\project01\data\raw_data\ComparisonEstimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2F90A5-CE20-4CC2-8F70-1462FEB0618C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CF08F2-9331-4995-BAD7-0B30A94B12F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMSL" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="PEN" sheetId="9" r:id="rId8"/>
     <sheet name="Expert" sheetId="8" r:id="rId9"/>
     <sheet name="transposed ar6" sheetId="11" r:id="rId10"/>
+    <sheet name="Frederikse" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="85">
   <si>
     <t>#</t>
   </si>
@@ -244,13 +245,64 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>steric</t>
+  </si>
+  <si>
+    <t>grd_glac</t>
+  </si>
+  <si>
+    <t>grd_GrIS</t>
+  </si>
+  <si>
+    <t>grd_AIS</t>
+  </si>
+  <si>
+    <t>grd_tws</t>
+  </si>
+  <si>
+    <t>grd_total</t>
+  </si>
+  <si>
+    <t>grd_tws_natural</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>grd_tws_gwd</t>
+  </si>
+  <si>
+    <t>grd_tws_dam</t>
+  </si>
+  <si>
+    <t>grd_ice</t>
+  </si>
+  <si>
+    <t>altimetry</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>obs_steric</t>
+  </si>
+  <si>
+    <t>Directly from frederikse data file … 90% comnverted to sigma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -337,8 +389,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +410,11 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -361,11 +425,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -409,9 +474,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -991,7 +1058,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1573,6 +1640,2831 @@
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="E24" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1140D5A-6A3D-4D73-8C57-3CF86E2ECC01}">
+  <dimension ref="A2:E168"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>1900</v>
+      </c>
+      <c r="C4">
+        <v>2018</v>
+      </c>
+      <c r="D4">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>1957</v>
+      </c>
+      <c r="C5">
+        <v>2018</v>
+      </c>
+      <c r="D5">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>1993</v>
+      </c>
+      <c r="C6">
+        <v>2018</v>
+      </c>
+      <c r="D6">
+        <v>3.35</v>
+      </c>
+      <c r="E6">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7">
+        <v>1900</v>
+      </c>
+      <c r="C7">
+        <v>1949</v>
+      </c>
+      <c r="D7">
+        <v>1.35</v>
+      </c>
+      <c r="E7">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>1950</v>
+      </c>
+      <c r="C8">
+        <v>1999</v>
+      </c>
+      <c r="D8">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>1900</v>
+      </c>
+      <c r="C9">
+        <v>1956</v>
+      </c>
+      <c r="D9">
+        <v>1.552</v>
+      </c>
+      <c r="E9">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10">
+        <v>1957</v>
+      </c>
+      <c r="C10">
+        <v>1993</v>
+      </c>
+      <c r="D10">
+        <v>0.872</v>
+      </c>
+      <c r="E10">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11">
+        <v>1901</v>
+      </c>
+      <c r="C11">
+        <v>2018</v>
+      </c>
+      <c r="D11">
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>1901</v>
+      </c>
+      <c r="C12">
+        <v>1990</v>
+      </c>
+      <c r="D12">
+        <v>1.4430000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13">
+        <v>1971</v>
+      </c>
+      <c r="C13">
+        <v>2018</v>
+      </c>
+      <c r="D13">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14">
+        <v>2006</v>
+      </c>
+      <c r="C14">
+        <v>2018</v>
+      </c>
+      <c r="D14">
+        <v>4.2779999999999996</v>
+      </c>
+      <c r="E14">
+        <v>0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15">
+        <v>1900</v>
+      </c>
+      <c r="C15">
+        <v>2018</v>
+      </c>
+      <c r="D15">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>1957</v>
+      </c>
+      <c r="C16">
+        <v>2018</v>
+      </c>
+      <c r="D16">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="E16">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="25">
+        <v>1993</v>
+      </c>
+      <c r="C17" s="25">
+        <v>2018</v>
+      </c>
+      <c r="D17">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18">
+        <v>1900</v>
+      </c>
+      <c r="C18">
+        <v>1949</v>
+      </c>
+      <c r="D18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E18">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19">
+        <v>1950</v>
+      </c>
+      <c r="C19">
+        <v>1999</v>
+      </c>
+      <c r="D19">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="E19">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="25">
+        <v>1900</v>
+      </c>
+      <c r="C20" s="25">
+        <v>1956</v>
+      </c>
+      <c r="D20">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="E20">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="25">
+        <v>1957</v>
+      </c>
+      <c r="C21" s="25">
+        <v>1993</v>
+      </c>
+      <c r="D21">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <v>1901</v>
+      </c>
+      <c r="C22">
+        <v>2018</v>
+      </c>
+      <c r="D22">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="E22">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23">
+        <v>1901</v>
+      </c>
+      <c r="C23">
+        <v>1990</v>
+      </c>
+      <c r="D23">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>1971</v>
+      </c>
+      <c r="C24">
+        <v>2018</v>
+      </c>
+      <c r="D24">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25">
+        <v>2006</v>
+      </c>
+      <c r="C25">
+        <v>2018</v>
+      </c>
+      <c r="D25">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="E25">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26">
+        <v>1900</v>
+      </c>
+      <c r="C26">
+        <v>2018</v>
+      </c>
+      <c r="D26">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="E26">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27">
+        <v>1957</v>
+      </c>
+      <c r="C27">
+        <v>2018</v>
+      </c>
+      <c r="D27">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="E27">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>1993</v>
+      </c>
+      <c r="C28">
+        <v>2018</v>
+      </c>
+      <c r="D28">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E28">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29">
+        <v>1900</v>
+      </c>
+      <c r="C29">
+        <v>1949</v>
+      </c>
+      <c r="D29">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E29">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30">
+        <v>1950</v>
+      </c>
+      <c r="C30">
+        <v>1999</v>
+      </c>
+      <c r="D30">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="E30">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <v>1900</v>
+      </c>
+      <c r="C31">
+        <v>1956</v>
+      </c>
+      <c r="D31">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="E31">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32">
+        <v>1957</v>
+      </c>
+      <c r="C32">
+        <v>1993</v>
+      </c>
+      <c r="D32">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="E32">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>1901</v>
+      </c>
+      <c r="C33">
+        <v>2018</v>
+      </c>
+      <c r="D33">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="E33">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>1901</v>
+      </c>
+      <c r="C34">
+        <v>1990</v>
+      </c>
+      <c r="D34">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="E34">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35">
+        <v>1971</v>
+      </c>
+      <c r="C35">
+        <v>2018</v>
+      </c>
+      <c r="D35">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="E35">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36">
+        <v>2006</v>
+      </c>
+      <c r="C36">
+        <v>2018</v>
+      </c>
+      <c r="D36">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="E36">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37">
+        <v>1900</v>
+      </c>
+      <c r="C37">
+        <v>2018</v>
+      </c>
+      <c r="D37">
+        <v>0.443</v>
+      </c>
+      <c r="E37">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38">
+        <v>1957</v>
+      </c>
+      <c r="C38">
+        <v>2018</v>
+      </c>
+      <c r="D38">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E38">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39">
+        <v>1993</v>
+      </c>
+      <c r="C39">
+        <v>2018</v>
+      </c>
+      <c r="D39">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="E39">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40">
+        <v>1900</v>
+      </c>
+      <c r="C40">
+        <v>1949</v>
+      </c>
+      <c r="D40">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="E40">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41">
+        <v>1950</v>
+      </c>
+      <c r="C41">
+        <v>1999</v>
+      </c>
+      <c r="D41">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="E41">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42">
+        <v>1900</v>
+      </c>
+      <c r="C42">
+        <v>1956</v>
+      </c>
+      <c r="D42">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E42">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43">
+        <v>1957</v>
+      </c>
+      <c r="C43">
+        <v>1993</v>
+      </c>
+      <c r="D43">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="E43">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44">
+        <v>1901</v>
+      </c>
+      <c r="C44">
+        <v>2018</v>
+      </c>
+      <c r="D44">
+        <v>0.442</v>
+      </c>
+      <c r="E44">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45">
+        <v>1901</v>
+      </c>
+      <c r="C45">
+        <v>1990</v>
+      </c>
+      <c r="D45">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="E45">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46">
+        <v>1971</v>
+      </c>
+      <c r="C46">
+        <v>2018</v>
+      </c>
+      <c r="D46">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="E46">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47">
+        <v>2006</v>
+      </c>
+      <c r="C47">
+        <v>2018</v>
+      </c>
+      <c r="D47">
+        <v>0.85</v>
+      </c>
+      <c r="E47">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48">
+        <v>1900</v>
+      </c>
+      <c r="C48">
+        <v>2018</v>
+      </c>
+      <c r="D48">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E48">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49">
+        <v>1957</v>
+      </c>
+      <c r="C49">
+        <v>2018</v>
+      </c>
+      <c r="D49">
+        <v>0.13</v>
+      </c>
+      <c r="E49">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50">
+        <v>1993</v>
+      </c>
+      <c r="C50">
+        <v>2018</v>
+      </c>
+      <c r="D50">
+        <v>0.32</v>
+      </c>
+      <c r="E50">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51">
+        <v>1900</v>
+      </c>
+      <c r="C51">
+        <v>1949</v>
+      </c>
+      <c r="D51">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E51">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52">
+        <v>1950</v>
+      </c>
+      <c r="C52">
+        <v>1999</v>
+      </c>
+      <c r="D52">
+        <v>0.06</v>
+      </c>
+      <c r="E52">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53">
+        <v>1900</v>
+      </c>
+      <c r="C53">
+        <v>1956</v>
+      </c>
+      <c r="D53">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E53">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54">
+        <v>1957</v>
+      </c>
+      <c r="C54">
+        <v>1993</v>
+      </c>
+      <c r="D54">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E54">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55">
+        <v>1901</v>
+      </c>
+      <c r="C55">
+        <v>2018</v>
+      </c>
+      <c r="D55">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E55">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56">
+        <v>1901</v>
+      </c>
+      <c r="C56">
+        <v>1990</v>
+      </c>
+      <c r="D56">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E56">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57">
+        <v>1971</v>
+      </c>
+      <c r="C57">
+        <v>2018</v>
+      </c>
+      <c r="D57">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E57">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58">
+        <v>2006</v>
+      </c>
+      <c r="C58">
+        <v>2018</v>
+      </c>
+      <c r="D58">
+        <v>0.496</v>
+      </c>
+      <c r="E58">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59">
+        <v>1900</v>
+      </c>
+      <c r="C59">
+        <v>2018</v>
+      </c>
+      <c r="D59">
+        <v>-0.21299999999999999</v>
+      </c>
+      <c r="E59">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60">
+        <v>1957</v>
+      </c>
+      <c r="C60">
+        <v>2018</v>
+      </c>
+      <c r="D60">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="E60">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61">
+        <v>1993</v>
+      </c>
+      <c r="C61">
+        <v>2018</v>
+      </c>
+      <c r="D61">
+        <v>0.313</v>
+      </c>
+      <c r="E61">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62">
+        <v>1900</v>
+      </c>
+      <c r="C62">
+        <v>1949</v>
+      </c>
+      <c r="D62">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="E62">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63">
+        <v>1950</v>
+      </c>
+      <c r="C63">
+        <v>1999</v>
+      </c>
+      <c r="D63">
+        <v>-0.438</v>
+      </c>
+      <c r="E63">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64">
+        <v>1900</v>
+      </c>
+      <c r="C64">
+        <v>1956</v>
+      </c>
+      <c r="D64">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="E64">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65">
+        <v>1957</v>
+      </c>
+      <c r="C65">
+        <v>1993</v>
+      </c>
+      <c r="D65">
+        <v>-0.49099999999999999</v>
+      </c>
+      <c r="E65">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66">
+        <v>1901</v>
+      </c>
+      <c r="C66">
+        <v>2018</v>
+      </c>
+      <c r="D66">
+        <v>-0.216</v>
+      </c>
+      <c r="E66">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67">
+        <v>1901</v>
+      </c>
+      <c r="C67">
+        <v>1990</v>
+      </c>
+      <c r="D67">
+        <v>-0.253</v>
+      </c>
+      <c r="E67">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>1971</v>
+      </c>
+      <c r="C68">
+        <v>2018</v>
+      </c>
+      <c r="D68">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E68">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69">
+        <v>2006</v>
+      </c>
+      <c r="C69">
+        <v>2018</v>
+      </c>
+      <c r="D69">
+        <v>0.501</v>
+      </c>
+      <c r="E69">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70">
+        <v>1900</v>
+      </c>
+      <c r="C70">
+        <v>2018</v>
+      </c>
+      <c r="D70">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="E70">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>1957</v>
+      </c>
+      <c r="C71">
+        <v>2018</v>
+      </c>
+      <c r="D71">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="E71">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <v>1993</v>
+      </c>
+      <c r="C72">
+        <v>2018</v>
+      </c>
+      <c r="D72">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="E72">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>1900</v>
+      </c>
+      <c r="C73">
+        <v>1949</v>
+      </c>
+      <c r="D73">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="E73">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>1950</v>
+      </c>
+      <c r="C74">
+        <v>1999</v>
+      </c>
+      <c r="D74">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="E74">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1900</v>
+      </c>
+      <c r="C75">
+        <v>1956</v>
+      </c>
+      <c r="D75">
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="E75">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>1957</v>
+      </c>
+      <c r="C76">
+        <v>1993</v>
+      </c>
+      <c r="D76">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E76">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>1901</v>
+      </c>
+      <c r="C77">
+        <v>2018</v>
+      </c>
+      <c r="D77">
+        <v>0.999</v>
+      </c>
+      <c r="E77">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78">
+        <v>1901</v>
+      </c>
+      <c r="C78">
+        <v>1990</v>
+      </c>
+      <c r="D78">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="E78">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79">
+        <v>1971</v>
+      </c>
+      <c r="C79">
+        <v>2018</v>
+      </c>
+      <c r="D79">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="E79">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80">
+        <v>2006</v>
+      </c>
+      <c r="C80">
+        <v>2018</v>
+      </c>
+      <c r="D80">
+        <v>2.54</v>
+      </c>
+      <c r="E80">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81">
+        <v>1900</v>
+      </c>
+      <c r="C81">
+        <v>2018</v>
+      </c>
+      <c r="D81" t="s">
+        <v>76</v>
+      </c>
+      <c r="E81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82">
+        <v>1957</v>
+      </c>
+      <c r="C82">
+        <v>2018</v>
+      </c>
+      <c r="D82" t="s">
+        <v>76</v>
+      </c>
+      <c r="E82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83">
+        <v>1993</v>
+      </c>
+      <c r="C83">
+        <v>2018</v>
+      </c>
+      <c r="D83" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84">
+        <v>1900</v>
+      </c>
+      <c r="C84">
+        <v>1949</v>
+      </c>
+      <c r="D84">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="E84">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85">
+        <v>1950</v>
+      </c>
+      <c r="C85">
+        <v>1999</v>
+      </c>
+      <c r="D85">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="E85">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86">
+        <v>1900</v>
+      </c>
+      <c r="C86">
+        <v>1956</v>
+      </c>
+      <c r="D86">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="E86">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>75</v>
+      </c>
+      <c r="B87">
+        <v>1957</v>
+      </c>
+      <c r="C87">
+        <v>1993</v>
+      </c>
+      <c r="D87">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="E87">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88">
+        <v>1901</v>
+      </c>
+      <c r="C88">
+        <v>2018</v>
+      </c>
+      <c r="D88" t="s">
+        <v>76</v>
+      </c>
+      <c r="E88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>75</v>
+      </c>
+      <c r="B89">
+        <v>1901</v>
+      </c>
+      <c r="C89">
+        <v>1990</v>
+      </c>
+      <c r="D89">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="E89">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90">
+        <v>1971</v>
+      </c>
+      <c r="C90">
+        <v>2018</v>
+      </c>
+      <c r="D90" t="s">
+        <v>76</v>
+      </c>
+      <c r="E90" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>75</v>
+      </c>
+      <c r="B91">
+        <v>2006</v>
+      </c>
+      <c r="C91">
+        <v>2018</v>
+      </c>
+      <c r="D91" t="s">
+        <v>76</v>
+      </c>
+      <c r="E91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92">
+        <v>1900</v>
+      </c>
+      <c r="C92">
+        <v>2018</v>
+      </c>
+      <c r="D92" t="s">
+        <v>76</v>
+      </c>
+      <c r="E92" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93">
+        <v>1957</v>
+      </c>
+      <c r="C93">
+        <v>2018</v>
+      </c>
+      <c r="D93" t="s">
+        <v>76</v>
+      </c>
+      <c r="E93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94">
+        <v>1993</v>
+      </c>
+      <c r="C94">
+        <v>2018</v>
+      </c>
+      <c r="D94" t="s">
+        <v>76</v>
+      </c>
+      <c r="E94" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95">
+        <v>1900</v>
+      </c>
+      <c r="C95">
+        <v>1949</v>
+      </c>
+      <c r="D95">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E95">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96">
+        <v>1950</v>
+      </c>
+      <c r="C96">
+        <v>1999</v>
+      </c>
+      <c r="D96">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E96">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>77</v>
+      </c>
+      <c r="B97">
+        <v>1900</v>
+      </c>
+      <c r="C97">
+        <v>1956</v>
+      </c>
+      <c r="D97">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E97">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98">
+        <v>1957</v>
+      </c>
+      <c r="C98">
+        <v>1993</v>
+      </c>
+      <c r="D98">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E98">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99">
+        <v>1901</v>
+      </c>
+      <c r="C99">
+        <v>2018</v>
+      </c>
+      <c r="D99" t="s">
+        <v>76</v>
+      </c>
+      <c r="E99" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100">
+        <v>1901</v>
+      </c>
+      <c r="C100">
+        <v>1990</v>
+      </c>
+      <c r="D100">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E100">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101">
+        <v>1971</v>
+      </c>
+      <c r="C101">
+        <v>2018</v>
+      </c>
+      <c r="D101" t="s">
+        <v>76</v>
+      </c>
+      <c r="E101" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102">
+        <v>2006</v>
+      </c>
+      <c r="C102">
+        <v>2018</v>
+      </c>
+      <c r="D102" t="s">
+        <v>76</v>
+      </c>
+      <c r="E102" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103">
+        <v>1900</v>
+      </c>
+      <c r="C103">
+        <v>2018</v>
+      </c>
+      <c r="D103" t="s">
+        <v>76</v>
+      </c>
+      <c r="E103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104">
+        <v>1957</v>
+      </c>
+      <c r="C104">
+        <v>2018</v>
+      </c>
+      <c r="D104" t="s">
+        <v>76</v>
+      </c>
+      <c r="E104" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105">
+        <v>1993</v>
+      </c>
+      <c r="C105">
+        <v>2018</v>
+      </c>
+      <c r="D105" t="s">
+        <v>76</v>
+      </c>
+      <c r="E105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106">
+        <v>1900</v>
+      </c>
+      <c r="C106">
+        <v>1949</v>
+      </c>
+      <c r="D106">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="E106">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>78</v>
+      </c>
+      <c r="B107">
+        <v>1950</v>
+      </c>
+      <c r="C107">
+        <v>1999</v>
+      </c>
+      <c r="D107">
+        <v>-0.53300000000000003</v>
+      </c>
+      <c r="E107">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108">
+        <v>1900</v>
+      </c>
+      <c r="C108">
+        <v>1956</v>
+      </c>
+      <c r="D108">
+        <v>-0.05</v>
+      </c>
+      <c r="E108">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>78</v>
+      </c>
+      <c r="B109">
+        <v>1957</v>
+      </c>
+      <c r="C109">
+        <v>1993</v>
+      </c>
+      <c r="D109">
+        <v>-0.58199999999999996</v>
+      </c>
+      <c r="E109">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>78</v>
+      </c>
+      <c r="B110">
+        <v>1901</v>
+      </c>
+      <c r="C110">
+        <v>2018</v>
+      </c>
+      <c r="D110" t="s">
+        <v>76</v>
+      </c>
+      <c r="E110" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111">
+        <v>1901</v>
+      </c>
+      <c r="C111">
+        <v>1990</v>
+      </c>
+      <c r="D111">
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="E111">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112">
+        <v>1971</v>
+      </c>
+      <c r="C112">
+        <v>2018</v>
+      </c>
+      <c r="D112" t="s">
+        <v>76</v>
+      </c>
+      <c r="E112" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>78</v>
+      </c>
+      <c r="B113">
+        <v>2006</v>
+      </c>
+      <c r="C113">
+        <v>2018</v>
+      </c>
+      <c r="D113" t="s">
+        <v>76</v>
+      </c>
+      <c r="E113" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>79</v>
+      </c>
+      <c r="B114">
+        <v>1900</v>
+      </c>
+      <c r="C114">
+        <v>2018</v>
+      </c>
+      <c r="D114">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="E114">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>79</v>
+      </c>
+      <c r="B115">
+        <v>1957</v>
+      </c>
+      <c r="C115">
+        <v>2018</v>
+      </c>
+      <c r="D115">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E115">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>79</v>
+      </c>
+      <c r="B116">
+        <v>1993</v>
+      </c>
+      <c r="C116">
+        <v>2018</v>
+      </c>
+      <c r="D116">
+        <v>1.643</v>
+      </c>
+      <c r="E116">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>79</v>
+      </c>
+      <c r="B117">
+        <v>1900</v>
+      </c>
+      <c r="C117">
+        <v>1949</v>
+      </c>
+      <c r="D117">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="E117">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>79</v>
+      </c>
+      <c r="B118">
+        <v>1950</v>
+      </c>
+      <c r="C118">
+        <v>1999</v>
+      </c>
+      <c r="D118">
+        <v>0.753</v>
+      </c>
+      <c r="E118">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>79</v>
+      </c>
+      <c r="B119">
+        <v>1900</v>
+      </c>
+      <c r="C119">
+        <v>1956</v>
+      </c>
+      <c r="D119">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="E119">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120">
+        <v>1957</v>
+      </c>
+      <c r="C120">
+        <v>1993</v>
+      </c>
+      <c r="D120">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="E120">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121">
+        <v>1901</v>
+      </c>
+      <c r="C121">
+        <v>2018</v>
+      </c>
+      <c r="D121">
+        <v>1.218</v>
+      </c>
+      <c r="E121">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>79</v>
+      </c>
+      <c r="B122">
+        <v>1901</v>
+      </c>
+      <c r="C122">
+        <v>1990</v>
+      </c>
+      <c r="D122">
+        <v>1.34</v>
+      </c>
+      <c r="E122">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>79</v>
+      </c>
+      <c r="B123">
+        <v>1971</v>
+      </c>
+      <c r="C123">
+        <v>2018</v>
+      </c>
+      <c r="D123">
+        <v>1.097</v>
+      </c>
+      <c r="E123">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>79</v>
+      </c>
+      <c r="B124">
+        <v>2006</v>
+      </c>
+      <c r="C124">
+        <v>2018</v>
+      </c>
+      <c r="D124">
+        <v>2.0209999999999999</v>
+      </c>
+      <c r="E124">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>80</v>
+      </c>
+      <c r="B125">
+        <v>1900</v>
+      </c>
+      <c r="C125">
+        <v>2018</v>
+      </c>
+      <c r="D125" t="s">
+        <v>76</v>
+      </c>
+      <c r="E125" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>80</v>
+      </c>
+      <c r="B126">
+        <v>1957</v>
+      </c>
+      <c r="C126">
+        <v>2018</v>
+      </c>
+      <c r="D126" t="s">
+        <v>76</v>
+      </c>
+      <c r="E126" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>80</v>
+      </c>
+      <c r="B127">
+        <v>1993</v>
+      </c>
+      <c r="C127">
+        <v>2018</v>
+      </c>
+      <c r="D127">
+        <v>3.3149999999999999</v>
+      </c>
+      <c r="E127">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>80</v>
+      </c>
+      <c r="B128">
+        <v>1900</v>
+      </c>
+      <c r="C128">
+        <v>1949</v>
+      </c>
+      <c r="D128" t="s">
+        <v>76</v>
+      </c>
+      <c r="E128" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129">
+        <v>1950</v>
+      </c>
+      <c r="C129">
+        <v>1999</v>
+      </c>
+      <c r="D129" t="s">
+        <v>76</v>
+      </c>
+      <c r="E129" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>80</v>
+      </c>
+      <c r="B130">
+        <v>1900</v>
+      </c>
+      <c r="C130">
+        <v>1956</v>
+      </c>
+      <c r="D130" t="s">
+        <v>76</v>
+      </c>
+      <c r="E130" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>80</v>
+      </c>
+      <c r="B131">
+        <v>1957</v>
+      </c>
+      <c r="C131">
+        <v>1993</v>
+      </c>
+      <c r="D131" t="s">
+        <v>76</v>
+      </c>
+      <c r="E131" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>80</v>
+      </c>
+      <c r="B132">
+        <v>1901</v>
+      </c>
+      <c r="C132">
+        <v>2018</v>
+      </c>
+      <c r="D132" t="s">
+        <v>76</v>
+      </c>
+      <c r="E132" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>80</v>
+      </c>
+      <c r="B133">
+        <v>1901</v>
+      </c>
+      <c r="C133">
+        <v>1990</v>
+      </c>
+      <c r="D133" t="s">
+        <v>76</v>
+      </c>
+      <c r="E133" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>80</v>
+      </c>
+      <c r="B134">
+        <v>1971</v>
+      </c>
+      <c r="C134">
+        <v>2018</v>
+      </c>
+      <c r="D134" t="s">
+        <v>76</v>
+      </c>
+      <c r="E134" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>80</v>
+      </c>
+      <c r="B135">
+        <v>2006</v>
+      </c>
+      <c r="C135">
+        <v>2018</v>
+      </c>
+      <c r="D135">
+        <v>4.1349999999999998</v>
+      </c>
+      <c r="E135">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>81</v>
+      </c>
+      <c r="B136">
+        <v>1900</v>
+      </c>
+      <c r="C136">
+        <v>2018</v>
+      </c>
+      <c r="D136">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="E136">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>81</v>
+      </c>
+      <c r="B137">
+        <v>1957</v>
+      </c>
+      <c r="C137">
+        <v>2018</v>
+      </c>
+      <c r="D137">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="E137">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>81</v>
+      </c>
+      <c r="B138">
+        <v>1993</v>
+      </c>
+      <c r="C138">
+        <v>2018</v>
+      </c>
+      <c r="D138">
+        <v>3.1579999999999999</v>
+      </c>
+      <c r="E138">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>81</v>
+      </c>
+      <c r="B139">
+        <v>1900</v>
+      </c>
+      <c r="C139">
+        <v>1949</v>
+      </c>
+      <c r="D139">
+        <v>1.837</v>
+      </c>
+      <c r="E139">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>81</v>
+      </c>
+      <c r="B140">
+        <v>1950</v>
+      </c>
+      <c r="C140">
+        <v>1999</v>
+      </c>
+      <c r="D140">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="E140">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>81</v>
+      </c>
+      <c r="B141">
+        <v>1900</v>
+      </c>
+      <c r="C141">
+        <v>1956</v>
+      </c>
+      <c r="D141">
+        <v>1.87</v>
+      </c>
+      <c r="E141">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>81</v>
+      </c>
+      <c r="B142">
+        <v>1957</v>
+      </c>
+      <c r="C142">
+        <v>1993</v>
+      </c>
+      <c r="D142">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="E142">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>81</v>
+      </c>
+      <c r="B143">
+        <v>1901</v>
+      </c>
+      <c r="C143">
+        <v>2018</v>
+      </c>
+      <c r="D143">
+        <v>1.524</v>
+      </c>
+      <c r="E143">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>81</v>
+      </c>
+      <c r="B144">
+        <v>1901</v>
+      </c>
+      <c r="C144">
+        <v>1990</v>
+      </c>
+      <c r="D144">
+        <v>1.502</v>
+      </c>
+      <c r="E144">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>81</v>
+      </c>
+      <c r="B145">
+        <v>1971</v>
+      </c>
+      <c r="C145">
+        <v>2018</v>
+      </c>
+      <c r="D145">
+        <v>2.0169999999999999</v>
+      </c>
+      <c r="E145">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>81</v>
+      </c>
+      <c r="B146">
+        <v>2006</v>
+      </c>
+      <c r="C146">
+        <v>2018</v>
+      </c>
+      <c r="D146">
+        <v>3.7109999999999999</v>
+      </c>
+      <c r="E146">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>82</v>
+      </c>
+      <c r="B147">
+        <v>1900</v>
+      </c>
+      <c r="C147">
+        <v>2018</v>
+      </c>
+      <c r="D147">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E147">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>82</v>
+      </c>
+      <c r="B148">
+        <v>1957</v>
+      </c>
+      <c r="C148">
+        <v>2018</v>
+      </c>
+      <c r="D148">
+        <v>0.27</v>
+      </c>
+      <c r="E148">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>82</v>
+      </c>
+      <c r="B149">
+        <v>1993</v>
+      </c>
+      <c r="C149">
+        <v>2018</v>
+      </c>
+      <c r="D149">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E149">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>82</v>
+      </c>
+      <c r="B150">
+        <v>1900</v>
+      </c>
+      <c r="C150">
+        <v>1949</v>
+      </c>
+      <c r="D150">
+        <v>-0.48399999999999999</v>
+      </c>
+      <c r="E150">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>82</v>
+      </c>
+      <c r="B151">
+        <v>1950</v>
+      </c>
+      <c r="C151">
+        <v>1999</v>
+      </c>
+      <c r="D151">
+        <v>0.19</v>
+      </c>
+      <c r="E151">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>82</v>
+      </c>
+      <c r="B152">
+        <v>1900</v>
+      </c>
+      <c r="C152">
+        <v>1956</v>
+      </c>
+      <c r="D152">
+        <v>-0.31900000000000001</v>
+      </c>
+      <c r="E152">
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>82</v>
+      </c>
+      <c r="B153">
+        <v>1957</v>
+      </c>
+      <c r="C153">
+        <v>1993</v>
+      </c>
+      <c r="D153">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E153">
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>82</v>
+      </c>
+      <c r="B154">
+        <v>1901</v>
+      </c>
+      <c r="C154">
+        <v>2018</v>
+      </c>
+      <c r="D154">
+        <v>0.04</v>
+      </c>
+      <c r="E154">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>82</v>
+      </c>
+      <c r="B155">
+        <v>1901</v>
+      </c>
+      <c r="C155">
+        <v>1990</v>
+      </c>
+      <c r="D155">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="E155">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>82</v>
+      </c>
+      <c r="B156">
+        <v>1971</v>
+      </c>
+      <c r="C156">
+        <v>2018</v>
+      </c>
+      <c r="D156">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="E156">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>82</v>
+      </c>
+      <c r="B157">
+        <v>2006</v>
+      </c>
+      <c r="C157">
+        <v>2018</v>
+      </c>
+      <c r="D157">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E157">
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>83</v>
+      </c>
+      <c r="B158">
+        <v>1900</v>
+      </c>
+      <c r="C158">
+        <v>2018</v>
+      </c>
+      <c r="D158">
+        <v>1.044</v>
+      </c>
+      <c r="E158">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>83</v>
+      </c>
+      <c r="B159">
+        <v>1957</v>
+      </c>
+      <c r="C159">
+        <v>2018</v>
+      </c>
+      <c r="D159">
+        <v>1.071</v>
+      </c>
+      <c r="E159">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>83</v>
+      </c>
+      <c r="B160">
+        <v>1993</v>
+      </c>
+      <c r="C160">
+        <v>2018</v>
+      </c>
+      <c r="D160">
+        <v>2.1629999999999998</v>
+      </c>
+      <c r="E160">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>83</v>
+      </c>
+      <c r="B161">
+        <v>1900</v>
+      </c>
+      <c r="C161">
+        <v>1949</v>
+      </c>
+      <c r="D161">
+        <v>1.06</v>
+      </c>
+      <c r="E161">
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>83</v>
+      </c>
+      <c r="B162">
+        <v>1950</v>
+      </c>
+      <c r="C162">
+        <v>1999</v>
+      </c>
+      <c r="D162">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="E162">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>83</v>
+      </c>
+      <c r="B163">
+        <v>1900</v>
+      </c>
+      <c r="C163">
+        <v>1956</v>
+      </c>
+      <c r="D163">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="E163">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>83</v>
+      </c>
+      <c r="B164">
+        <v>1957</v>
+      </c>
+      <c r="C164">
+        <v>1993</v>
+      </c>
+      <c r="D164">
+        <v>0.442</v>
+      </c>
+      <c r="E164">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>83</v>
+      </c>
+      <c r="B165">
+        <v>1901</v>
+      </c>
+      <c r="C165">
+        <v>2018</v>
+      </c>
+      <c r="D165">
+        <v>1.042</v>
+      </c>
+      <c r="E165">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>83</v>
+      </c>
+      <c r="B166">
+        <v>1901</v>
+      </c>
+      <c r="C166">
+        <v>1990</v>
+      </c>
+      <c r="D166">
+        <v>1.022</v>
+      </c>
+      <c r="E166">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>83</v>
+      </c>
+      <c r="B167">
+        <v>1971</v>
+      </c>
+      <c r="C167">
+        <v>2018</v>
+      </c>
+      <c r="D167">
+        <v>1.403</v>
+      </c>
+      <c r="E167">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>83</v>
+      </c>
+      <c r="B168">
+        <v>2006</v>
+      </c>
+      <c r="C168">
+        <v>2018</v>
+      </c>
+      <c r="D168">
+        <v>3.101</v>
+      </c>
+      <c r="E168">
+        <v>0.65500000000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2936,7 +5828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA05C6A7-BA3D-4777-877F-5B2D19C566E2}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
+++ b/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Documents\Python\project01\data\raw_data\ComparisonEstimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CF08F2-9331-4995-BAD7-0B30A94B12F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF8D304-C2ED-4C2E-9B04-1B63CD2F0E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMSL" sheetId="1" r:id="rId1"/>
@@ -1650,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1140D5A-6A3D-4D73-8C57-3CF86E2ECC01}">
   <dimension ref="A2:E168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4967,8 +4967,8 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
+++ b/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Documents\Python\project01\data\raw_data\ComparisonEstimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF8D304-C2ED-4C2E-9B04-1B63CD2F0E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67159727-5128-4F20-A4E1-0A8384CC4AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMSL" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Frederikse" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1651,7 +1652,7 @@
   <dimension ref="A2:E168"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:E44"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4967,8 +4968,8 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5652,8 +5653,8 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5727,7 +5728,7 @@
         <f>46/361</f>
         <v>0.12742382271468145</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="12" t="s">
         <v>33</v>
       </c>
     </row>

--- a/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
+++ b/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Documents\Python\project01\data\raw_data\ComparisonEstimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67159727-5128-4F20-A4E1-0A8384CC4AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7D5A70-A8BD-4E66-9C5D-B7B26F8D5786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMSL" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="WAIS" sheetId="6" r:id="rId6"/>
     <sheet name="EAIS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="9" r:id="rId8"/>
-    <sheet name="Expert" sheetId="8" r:id="rId9"/>
-    <sheet name="transposed ar6" sheetId="11" r:id="rId10"/>
-    <sheet name="Frederikse" sheetId="12" r:id="rId11"/>
+    <sheet name="AllButGlaciers" sheetId="13" r:id="rId9"/>
+    <sheet name="Expert" sheetId="8" r:id="rId10"/>
+    <sheet name="transposed ar6" sheetId="11" r:id="rId11"/>
+    <sheet name="Frederikse" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="89">
   <si>
     <t>#</t>
   </si>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>Directly from frederikse data file … 90% comnverted to sigma</t>
+  </si>
+  <si>
+    <t>glac</t>
+  </si>
+  <si>
+    <t>glacsigma</t>
+  </si>
+  <si>
+    <t>gmslrate</t>
+  </si>
+  <si>
+    <t>gmslsigma</t>
   </si>
 </sst>
 </file>
@@ -699,7 +711,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection sqref="A1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1055,6 +1067,244 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA05C6A7-BA3D-4777-877F-5B2D19C566E2}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <f>(0.7+1.5+1.5+2)/4</f>
+        <v>1.425</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="E5">
+        <v>0.49</v>
+      </c>
+      <c r="F5">
+        <v>0.69</v>
+      </c>
+      <c r="G5">
+        <v>0.98</v>
+      </c>
+      <c r="H5">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f>(0.7+2+2+5)/4</f>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.62</v>
+      </c>
+      <c r="E6">
+        <v>0.79</v>
+      </c>
+      <c r="F6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G6">
+        <v>1.74</v>
+      </c>
+      <c r="H6">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
+        <f>(0.7+1.5+1.5+2)/4</f>
+        <v>1.425</v>
+      </c>
+      <c r="D7">
+        <v>-0.08</v>
+      </c>
+      <c r="E7">
+        <v>-0.01</v>
+      </c>
+      <c r="F7">
+        <v>0.09</v>
+      </c>
+      <c r="G7">
+        <v>0.26</v>
+      </c>
+      <c r="H7">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f>(0.7+2+2+5)/4</f>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="D8">
+        <v>-0.11</v>
+      </c>
+      <c r="E8">
+        <v>0.02</v>
+      </c>
+      <c r="F8">
+        <v>0.21</v>
+      </c>
+      <c r="G8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H8">
+        <v>1.32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
+        <f>(0.7+1.5+1.5+2)/4</f>
+        <v>1.425</v>
+      </c>
+      <c r="D9">
+        <v>0.02</v>
+      </c>
+      <c r="E9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.13</v>
+      </c>
+      <c r="G9">
+        <v>0.31</v>
+      </c>
+      <c r="H9">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f>(0.7+2+2+5)/4</f>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.02</v>
+      </c>
+      <c r="E10">
+        <v>0.1</v>
+      </c>
+      <c r="F10">
+        <v>0.23</v>
+      </c>
+      <c r="G10">
+        <v>0.6</v>
+      </c>
+      <c r="H10">
+        <v>0.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031DC691-DD2C-453E-9956-962ECE938F19}">
   <dimension ref="A1:R24"/>
   <sheetViews>
@@ -1647,7 +1897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1140D5A-6A3D-4D73-8C57-3CF86E2ECC01}">
   <dimension ref="A2:E168"/>
   <sheetViews>
@@ -4692,7 +4942,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E5" sqref="E5:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5653,7 +5903,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -5826,239 +6076,303 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA05C6A7-BA3D-4777-877F-5B2D19C566E2}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0414F62-F26B-4AD1-AB30-17B83DAD40A3}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="11" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0.95416999999999996</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="G2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3.2896999999999998</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <f>(0.7+1.5+1.5+2)/4</f>
-        <v>1.425</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.36</v>
-      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1901</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1990</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5">
-        <v>0.49</v>
+        <f>J5-L5</f>
+        <v>0.77000000000000013</v>
       </c>
       <c r="F5">
-        <v>0.69</v>
-      </c>
-      <c r="G5">
-        <v>0.98</v>
-      </c>
-      <c r="H5">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <f>(0.7+2+2+5)/4</f>
-        <v>2.4249999999999998</v>
-      </c>
-      <c r="D6">
+        <f>SQRT(K5^2+ M5^2)</f>
+        <v>0.37600136416247626</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="21">
+        <v>1.35</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0.34653615831230811</v>
+      </c>
+      <c r="L5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M5">
+        <v>0.14590996139465603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1971</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6">
+        <f>J6-L6</f>
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="F6">
+        <f>SQRT(K6^2+ M6^2)</f>
+        <v>0.49731015669922207</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="21">
+        <v>2.33</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0.47724716539502088</v>
+      </c>
+      <c r="L6">
+        <v>0.44</v>
+      </c>
+      <c r="M6">
+        <v>0.13983037966987874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1993</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7">
+        <f>J7-L7</f>
+        <v>2.7</v>
+      </c>
+      <c r="F7">
+        <f>SQRT(K7^2+ M7^2)</f>
+        <v>0.23991249685230437</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="16">
+        <v>3.25</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0.22190473295437274</v>
+      </c>
+      <c r="L7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M7">
+        <v>9.1193725871660011E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2006</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8">
+        <f>J8-L8</f>
+        <v>3.07</v>
+      </c>
+      <c r="F8">
+        <f>SQRT(K8^2+ M8^2)</f>
+        <v>0.29372937729089094</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8">
+        <v>3.69</v>
+      </c>
+      <c r="K8">
+        <v>0.29181992278931213</v>
+      </c>
+      <c r="L8">
         <v>0.62</v>
       </c>
-      <c r="E6">
-        <v>0.79</v>
-      </c>
-      <c r="F6">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G6">
-        <v>1.74</v>
-      </c>
-      <c r="H6">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8">
-        <f>(0.7+1.5+1.5+2)/4</f>
-        <v>1.425</v>
-      </c>
-      <c r="D7">
-        <v>-0.08</v>
-      </c>
-      <c r="E7">
-        <v>-0.01</v>
-      </c>
-      <c r="F7">
-        <v>0.09</v>
-      </c>
-      <c r="G7">
-        <v>0.26</v>
-      </c>
-      <c r="H7">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <f>(0.7+2+2+5)/4</f>
-        <v>2.4249999999999998</v>
-      </c>
-      <c r="D8">
-        <v>-0.11</v>
-      </c>
-      <c r="E8">
-        <v>0.02</v>
-      </c>
-      <c r="F8">
-        <v>0.21</v>
-      </c>
-      <c r="G8">
+      <c r="M8">
+        <v>3.3437699486275375E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1901</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9">
+        <f>J9-L9</f>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="F9">
+        <f>SQRT(K9^2+ M9^2)</f>
+        <v>0.30046299159562434</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9">
+        <v>1.73</v>
+      </c>
+      <c r="K9">
+        <v>0.27054138675259143</v>
+      </c>
+      <c r="L9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H8">
-        <v>1.32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8">
-        <f>(0.7+1.5+1.5+2)/4</f>
-        <v>1.425</v>
-      </c>
-      <c r="D9">
-        <v>0.02</v>
-      </c>
-      <c r="E9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F9">
-        <v>0.13</v>
-      </c>
-      <c r="G9">
-        <v>0.31</v>
-      </c>
-      <c r="H9">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <f>(0.7+2+2+5)/4</f>
-        <v>2.4249999999999998</v>
-      </c>
-      <c r="D10">
-        <v>0.02</v>
-      </c>
+      <c r="M9">
+        <v>0.13071100708271274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1850</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1900</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="E10">
-        <v>0.1</v>
+        <f>J10-L10</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F10">
-        <v>0.23</v>
-      </c>
-      <c r="G10">
-        <v>0.6</v>
-      </c>
-      <c r="H10">
-        <v>0.99</v>
+        <f>SQRT(K10^2+ M10^2)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="5">
+        <f>0.014*1000/50</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K10" s="5">
+        <f>0.014*1000/50</f>
+        <v>0.28000000000000003</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I1" r:id="rId1" xr:uid="{F141555B-26A2-40A5-8281-236CFCC5783A}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{64358BC0-D5B0-428D-93C6-17383AB8397E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
+++ b/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Documents\Python\project01\data\raw_data\ComparisonEstimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7D5A70-A8BD-4E66-9C5D-B7B26F8D5786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B0EFD9-57F8-491B-A3EA-6239EDB352DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMSL" sheetId="1" r:id="rId1"/>
     <sheet name="Steric" sheetId="2" r:id="rId2"/>
-    <sheet name="Glaciers" sheetId="3" r:id="rId3"/>
+    <sheet name="GIC" sheetId="3" r:id="rId3"/>
     <sheet name="GrIS" sheetId="5" r:id="rId4"/>
     <sheet name="AIS" sheetId="4" r:id="rId5"/>
     <sheet name="WAIS" sheetId="6" r:id="rId6"/>
     <sheet name="EAIS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="9" r:id="rId8"/>
-    <sheet name="AllButGlaciers" sheetId="13" r:id="rId9"/>
+    <sheet name="All but GIC" sheetId="13" r:id="rId9"/>
     <sheet name="Expert" sheetId="8" r:id="rId10"/>
     <sheet name="transposed ar6" sheetId="11" r:id="rId11"/>
     <sheet name="Frederikse" sheetId="12" r:id="rId12"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="91">
   <si>
     <t>#</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>gmslsigma</t>
+  </si>
+  <si>
+    <t>#glac numbers from https://link.springer.com/article/10.1007/s10712-011-9121-7</t>
+  </si>
+  <si>
+    <t>1850-1900</t>
   </si>
 </sst>
 </file>
@@ -711,7 +717,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -947,7 +953,7 @@
     </row>
     <row r="10" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1">
         <v>1850</v>
@@ -1309,7 +1315,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4941,8 +4947,8 @@
   </sheetPr>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5168,6 +5174,24 @@
       <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1850</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1900</v>
+      </c>
+      <c r="E10">
+        <v>0.434</v>
+      </c>
+      <c r="F10">
+        <v>0.11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>89</v>
+      </c>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="16"/>
@@ -6077,15 +6101,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0414F62-F26B-4AD1-AB30-17B83DAD40A3}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S10" sqref="S10:W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6102,7 +6126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -6116,12 +6140,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -6146,20 +6170,20 @@
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
+      <c r="Q4" t="s">
         <v>87</v>
       </c>
-      <c r="K4" t="s">
+      <c r="R4" t="s">
         <v>88</v>
       </c>
-      <c r="L4" t="s">
+      <c r="S4" t="s">
         <v>85</v>
       </c>
-      <c r="M4" t="s">
+      <c r="T4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -6171,30 +6195,30 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5">
-        <f>J5-L5</f>
+        <f>Q5-S5</f>
         <v>0.77000000000000013</v>
       </c>
       <c r="F5">
-        <f>SQRT(K5^2+ M5^2)</f>
+        <f>SQRT(R5^2+ T5^2)</f>
         <v>0.37600136416247626</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="21">
+      <c r="Q5" s="21">
         <v>1.35</v>
       </c>
-      <c r="K5" s="21">
+      <c r="R5" s="21">
         <v>0.34653615831230811</v>
       </c>
-      <c r="L5">
+      <c r="S5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="M5">
+      <c r="T5">
         <v>0.14590996139465603</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -6206,30 +6230,30 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6">
-        <f>J6-L6</f>
+        <f>Q6-S6</f>
         <v>1.8900000000000001</v>
       </c>
       <c r="F6">
-        <f>SQRT(K6^2+ M6^2)</f>
+        <f>SQRT(R6^2+ T6^2)</f>
         <v>0.49731015669922207</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="21">
+      <c r="Q6" s="21">
         <v>2.33</v>
       </c>
-      <c r="K6" s="21">
+      <c r="R6" s="21">
         <v>0.47724716539502088</v>
       </c>
-      <c r="L6">
+      <c r="S6">
         <v>0.44</v>
       </c>
-      <c r="M6">
+      <c r="T6">
         <v>0.13983037966987874</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -6241,30 +6265,30 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7">
-        <f>J7-L7</f>
+        <f>Q7-S7</f>
         <v>2.7</v>
       </c>
       <c r="F7">
-        <f>SQRT(K7^2+ M7^2)</f>
+        <f>SQRT(R7^2+ T7^2)</f>
         <v>0.23991249685230437</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="16">
+      <c r="Q7" s="16">
         <v>3.25</v>
       </c>
-      <c r="K7" s="16">
+      <c r="R7" s="16">
         <v>0.22190473295437274</v>
       </c>
-      <c r="L7">
+      <c r="S7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M7">
+      <c r="T7">
         <v>9.1193725871660011E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -6276,30 +6300,30 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8">
-        <f>J8-L8</f>
+        <f>Q8-S8</f>
         <v>3.07</v>
       </c>
       <c r="F8">
-        <f>SQRT(K8^2+ M8^2)</f>
+        <f>SQRT(R8^2+ T8^2)</f>
         <v>0.29372937729089094</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J8">
+      <c r="Q8">
         <v>3.69</v>
       </c>
-      <c r="K8">
+      <c r="R8">
         <v>0.29181992278931213</v>
       </c>
-      <c r="L8">
+      <c r="S8">
         <v>0.62</v>
       </c>
-      <c r="M8">
+      <c r="T8">
         <v>3.3437699486275375E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -6311,30 +6335,30 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9">
-        <f>J9-L9</f>
+        <f>Q9-S9</f>
         <v>1.1600000000000001</v>
       </c>
       <c r="F9">
-        <f>SQRT(K9^2+ M9^2)</f>
+        <f>SQRT(R9^2+ T9^2)</f>
         <v>0.30046299159562434</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J9">
+      <c r="Q9">
         <v>1.73</v>
       </c>
-      <c r="K9">
+      <c r="R9">
         <v>0.27054138675259143</v>
       </c>
-      <c r="L9">
+      <c r="S9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M9">
+      <c r="T9">
         <v>0.13071100708271274</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -6346,12 +6370,12 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10">
-        <f>J10-L10</f>
-        <v>0.28000000000000003</v>
+        <f>Q10-S10</f>
+        <v>-0.15399999999999997</v>
       </c>
       <c r="F10">
-        <f>SQRT(K10^2+ M10^2)</f>
-        <v>0.28000000000000003</v>
+        <f>SQRT(R10^2+ T10^2)</f>
+        <v>0.30083217912982646</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>18</v>
@@ -6359,13 +6383,22 @@
       <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="5">
+      <c r="Q10" s="5">
         <f>0.014*1000/50</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="K10" s="5">
+      <c r="R10" s="5">
         <f>0.014*1000/50</f>
         <v>0.28000000000000003</v>
+      </c>
+      <c r="S10">
+        <v>0.434</v>
+      </c>
+      <c r="T10">
+        <v>0.11</v>
+      </c>
+      <c r="V10" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
+++ b/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Documents\Python\project01\data\raw_data\ComparisonEstimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ED7DAF-DB53-4008-B112-3AE1E9DFD4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC15508F-5727-4528-82CF-1A33067A88EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMSL" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="Frederikse" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="109">
   <si>
     <t>#</t>
   </si>
@@ -375,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -491,6 +492,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -591,9 +599,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -605,6 +610,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -836,12 +844,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="33" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -859,7 +867,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
@@ -874,7 +882,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
@@ -953,7 +961,7 @@
       <c r="S5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -986,7 +994,7 @@
       <c r="S6" s="20"/>
     </row>
     <row r="7" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1019,7 +1027,7 @@
       <c r="S7" s="20"/>
     </row>
     <row r="8" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1052,7 +1060,7 @@
       <c r="S8" s="20"/>
     </row>
     <row r="9" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -1085,7 +1093,7 @@
       <c r="S9" s="20"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1118,7 +1126,7 @@
       <c r="S10" s="20"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -1151,7 +1159,7 @@
       <c r="S11" s="20"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1181,7 +1189,7 @@
       <c r="S12" s="20"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -1347,234 +1355,234 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA05C6A7-BA3D-4777-877F-5B2D19C566E2}">
-  <dimension ref="B1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="F1" t="s">
+      <c r="C1" s="8"/>
+      <c r="E1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
       <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8">
         <f>(0.7+1.5+1.5+2)/4</f>
         <v>1.425</v>
       </c>
-      <c r="E5" s="8">
+      <c r="D5" s="8">
         <v>0.36</v>
       </c>
+      <c r="E5">
+        <v>0.49</v>
+      </c>
       <c r="F5">
-        <v>0.49</v>
+        <v>0.69</v>
       </c>
       <c r="G5">
-        <v>0.69</v>
+        <v>0.98</v>
       </c>
       <c r="H5">
-        <v>0.98</v>
-      </c>
-      <c r="I5">
         <v>1.26</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
       <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
         <f>(0.7+2+2+5)/4</f>
         <v>2.4249999999999998</v>
       </c>
+      <c r="D6">
+        <v>0.62</v>
+      </c>
       <c r="E6">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="F6">
-        <v>0.79</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G6">
-        <v>1.1100000000000001</v>
+        <v>1.74</v>
       </c>
       <c r="H6">
-        <v>1.74</v>
-      </c>
-      <c r="I6">
         <v>2.38</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
       <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8">
         <f>(0.7+1.5+1.5+2)/4</f>
         <v>1.425</v>
       </c>
+      <c r="D7">
+        <v>-0.08</v>
+      </c>
       <c r="E7">
-        <v>-0.08</v>
+        <v>-0.01</v>
       </c>
       <c r="F7">
-        <v>-0.01</v>
+        <v>0.09</v>
       </c>
       <c r="G7">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="H7">
-        <v>0.26</v>
-      </c>
-      <c r="I7">
         <v>0.53</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
       <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
         <f>(0.7+2+2+5)/4</f>
         <v>2.4249999999999998</v>
       </c>
+      <c r="D8">
+        <v>-0.11</v>
+      </c>
       <c r="E8">
-        <v>-0.11</v>
+        <v>0.02</v>
       </c>
       <c r="F8">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="G8">
-        <v>0.21</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I8">
         <v>1.32</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
       <c r="C9" s="8">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8">
         <f>(0.7+1.5+1.5+2)/4</f>
         <v>1.425</v>
       </c>
+      <c r="D9">
+        <v>0.02</v>
+      </c>
       <c r="E9">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.13</v>
       </c>
       <c r="G9">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="H9">
-        <v>0.31</v>
-      </c>
-      <c r="I9">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
       <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
         <f>(0.7+2+2+5)/4</f>
         <v>2.4249999999999998</v>
       </c>
+      <c r="D10">
+        <v>0.02</v>
+      </c>
       <c r="E10">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="G10">
-        <v>0.23</v>
+        <v>0.6</v>
       </c>
       <c r="H10">
-        <v>0.6</v>
-      </c>
-      <c r="I10">
         <v>0.99</v>
       </c>
     </row>
@@ -1585,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031DC691-DD2C-453E-9956-962ECE938F19}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:L28"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2016,7 +2024,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="35" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="5"/>
@@ -2048,59 +2056,59 @@
         <v>1970</v>
       </c>
       <c r="D9"/>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <f>(E7*($C7-$B7)-E4*($C4-$B4))/($C9-$B9)</f>
         <v>0.22768115942028996</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <f>SQRT((F7*($C7-$B7))^2+(F4*($C4-$B4))^2)/($C9-$B9)</f>
         <v>0.18513351446720258</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <f>(G7*($C7-$B7)-G4*($C4-$B4))/($C9-$B9)</f>
         <v>0.66681159420289848</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <f>SQRT((H7*($C7-$B7))^2+(H4*($C4-$B4))^2)/($C9-$B9)</f>
         <v>0.24123933665393343</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="31">
         <f>(I7*($C7-$B7)-I4*($C4-$B4))/($C9-$B9)</f>
         <v>0.42318840579710137</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="31">
         <f>SQRT((J7*($C7-$B7))^2+(J4*($C4-$B4))^2)/($C9-$B9)</f>
         <v>0.12427239538120734</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="31">
         <f>(K7*($C7-$B7)-K4*($C4-$B4))/($C9-$B9)</f>
         <v>6.3768115942028783E-3</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="31">
         <f>SQRT((L7*($C7-$B7))^2+(L4*($C4-$B4))^2)/($C9-$B9)</f>
         <v>0.13296624605146506</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="31">
         <f>(M7*($C7-$B7)-M4*($C4-$B4))/($C9-$B9)</f>
         <v>-0.28869565217391302</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="31">
         <f>SQRT((N7*($C7-$B7))^2+(N4*($C4-$B4))^2)/($C9-$B9)</f>
         <v>0.30087309282242997</v>
       </c>
-      <c r="O9" s="32">
+      <c r="O9" s="31">
         <f>(O7*($C7-$B7)-O4*($C4-$B4))/($C9-$B9)</f>
         <v>1.028550724637681</v>
       </c>
-      <c r="P9" s="32">
+      <c r="P9" s="31">
         <f>SQRT((P7*($C7-$B7))^2+(P4*($C4-$B4))^2)/($C9-$B9)</f>
         <v>0.4679566184766033</v>
       </c>
-      <c r="Q9" s="32">
+      <c r="Q9" s="31">
         <f>(Q7*($C7-$B7)-Q4*($C4-$B4))/($C9-$B9)</f>
         <v>1.3463768115942027</v>
       </c>
-      <c r="R9" s="32">
+      <c r="R9" s="31">
         <f>SQRT((R7*($C7-$B7))^2+(R4*($C4-$B4))^2)/($C9-$B9)</f>
         <v>0.56224910751723212</v>
       </c>
@@ -2116,59 +2124,59 @@
         <v>1992</v>
       </c>
       <c r="D10"/>
-      <c r="E10" s="32">
+      <c r="E10" s="31">
         <f>(E4*($C4-$B4)-E5*($C5-$B5))/($C10-$B10)</f>
         <v>0.70095238095238088</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <f>SQRT((F4*($C4-$B4))^2+(F5*($C5-$B5))^2)/($C10-$B10)</f>
         <v>0.45952870283282399</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="31">
         <f>(G4*($C4-$B4)-G5*($C5-$B5))/($C10-$B10)</f>
         <v>0.3299999999999999</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="31">
         <f>SQRT((H4*($C4-$B4))^2+(H5*($C5-$B5))^2)/($C10-$B10)</f>
         <v>0.33124938630037404</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="31">
         <f>(I4*($C4-$B4)-I5*($C5-$B5))/($C10-$B10)</f>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="31">
         <f>SQRT((J4*($C4-$B4))^2+(J5*($C5-$B5))^2)/($C10-$B10)</f>
         <v>0.13395156109087422</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="31">
         <f>(K4*($C4-$B4)-K5*($C5-$B5))/($C10-$B10)</f>
         <v>1.571428571428576E-2</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="31">
         <f>SQRT((L4*($C4-$B4))^2+(L5*($C5-$B5))^2)/($C10-$B10)</f>
         <v>0.31894306858980254</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="31">
         <f>(M4*($C4-$B4)-M5*($C5-$B5))/($C10-$B10)</f>
         <v>-3.333333333333334E-2</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="31">
         <f>SQRT((N4*($C4-$B4))^2+(N5*($C5-$B5))^2)/($C10-$B10)</f>
         <v>0.3078601657681368</v>
       </c>
-      <c r="O10" s="32">
+      <c r="O10" s="31">
         <f>(O4*($C4-$B4)-O5*($C5-$B5))/($C10-$B10)</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="P10" s="32">
+      <c r="P10" s="31">
         <f>SQRT((P4*($C4-$B4))^2+(P5*($C5-$B5))^2)/($C10-$B10)</f>
         <v>0.73274345748758574</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="31">
         <f>(Q4*($C4-$B4)-Q5*($C5-$B5))/($C10-$B10)</f>
         <v>1.3457142857142859</v>
       </c>
-      <c r="R10" s="32">
+      <c r="R10" s="31">
         <f>SQRT((R4*($C4-$B4))^2+(R5*($C5-$B5))^2)/($C10-$B10)</f>
         <v>1.1003077676127404</v>
       </c>
@@ -2184,59 +2192,59 @@
         <v>2005</v>
       </c>
       <c r="D11"/>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <f>(E5*($C5-$B5)-E6*($C6-$B6))/($C11-$B11)</f>
         <v>1.3391666666666666</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="31">
         <f>SQRT((F5*($C5-$B5))^2+(F6*($C6-$B6))^2)/($C11-$B11)</f>
         <v>0.60062098565845157</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="31">
         <f>(G5*($C5-$B5)-G6*($C6-$B6))/($C11-$B11)</f>
         <v>0.52583333333333349</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="31">
         <f>SQRT((H5*($C5-$B5))^2+(H6*($C6-$B6))^2)/($C11-$B11)</f>
         <v>0.19290700583317077</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="31">
         <f>(I5*($C5-$B5)-I6*($C6-$B6))/($C11-$B11)</f>
         <v>0.26583333333333331</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="31">
         <f>SQRT((J5*($C5-$B5))^2+(J6*($C6-$B6))^2)/($C11-$B11)</f>
         <v>0.11794868400199192</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="31">
         <f>(K5*($C5-$B5)-K6*($C6-$B6))/($C11-$B11)</f>
         <v>0.15083333333333337</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="31">
         <f>SQRT((L5*($C5-$B5))^2+(L6*($C6-$B6))^2)/($C11-$B11)</f>
         <v>0.13355515062502263</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="31">
         <f>(M5*($C5-$B5)-M6*($C6-$B6))/($C11-$B11)</f>
         <v>4.5833333333333393E-2</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="31">
         <f>SQRT((N5*($C5-$B5))^2+(N6*($C6-$B6))^2)/($C11-$B11)</f>
         <v>0.28452507424679996</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="31">
         <f>(O5*($C5-$B5)-O6*($C6-$B6))/($C11-$B11)</f>
         <v>2.3275000000000001</v>
       </c>
-      <c r="P11" s="32">
+      <c r="P11" s="31">
         <f>SQRT((P5*($C5-$B5))^2+(P6*($C6-$B6))^2)/($C11-$B11)</f>
         <v>0.71431923238752926</v>
       </c>
-      <c r="Q11" s="32">
+      <c r="Q11" s="31">
         <f>(Q5*($C5-$B5)-Q6*($C6-$B6))/($C11-$B11)</f>
         <v>3.0808333333333331</v>
       </c>
-      <c r="R11" s="32">
+      <c r="R11" s="31">
         <f>SQRT((R5*($C5-$B5))^2+(R6*($C6-$B6))^2)/($C11-$B11)</f>
         <v>0.54670062117437934</v>
       </c>
@@ -2252,60 +2260,60 @@
         <v>2018</v>
       </c>
       <c r="D12" s="20"/>
-      <c r="E12" s="33">
-        <f>E6</f>
+      <c r="E12" s="32">
+        <f t="shared" ref="E12:R12" si="0">E6</f>
         <v>1.39</v>
       </c>
-      <c r="F12" s="33">
-        <f>F6</f>
+      <c r="F12" s="32">
+        <f t="shared" si="0"/>
         <v>0.39821260297291544</v>
       </c>
-      <c r="G12" s="33">
-        <f>G6</f>
+      <c r="G12" s="32">
+        <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
-      <c r="H12" s="33">
-        <f>H6</f>
+      <c r="H12" s="32">
+        <f t="shared" si="0"/>
         <v>3.3437699486275375E-2</v>
       </c>
-      <c r="I12" s="33">
-        <f>I6</f>
+      <c r="I12" s="32">
+        <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
-      <c r="J12" s="33">
-        <f>J6</f>
+      <c r="J12" s="32">
+        <f t="shared" si="0"/>
         <v>6.9915189834939356E-2</v>
       </c>
-      <c r="K12" s="33">
-        <f>K6</f>
+      <c r="K12" s="32">
+        <f t="shared" si="0"/>
         <v>0.37</v>
       </c>
-      <c r="L12" s="33">
-        <f>L6</f>
+      <c r="L12" s="32">
+        <f t="shared" si="0"/>
         <v>7.9034562422105367E-2</v>
       </c>
-      <c r="M12" s="33">
-        <f>M6</f>
+      <c r="M12" s="32">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="N12" s="33">
-        <f>N6</f>
+      <c r="N12" s="32">
+        <f t="shared" si="0"/>
         <v>0.17022828829376541</v>
       </c>
-      <c r="O12" s="33">
-        <f>O6</f>
+      <c r="O12" s="32">
+        <f t="shared" si="0"/>
         <v>3.61</v>
       </c>
-      <c r="P12" s="33">
-        <f>P6</f>
+      <c r="P12" s="32">
+        <f t="shared" si="0"/>
         <v>0.44684925677113407</v>
       </c>
-      <c r="Q12" s="33">
-        <f>Q6</f>
+      <c r="Q12" s="32">
+        <f t="shared" si="0"/>
         <v>3.69</v>
       </c>
-      <c r="R12" s="33">
-        <f>R6</f>
+      <c r="R12" s="32">
+        <f t="shared" si="0"/>
         <v>0.29181992278931213</v>
       </c>
     </row>
@@ -2353,7 +2361,7 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
@@ -2361,236 +2369,25 @@
         <v>3.2896999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="13">
-        <v>1901</v>
-      </c>
-      <c r="C25" s="13">
-        <v>1970</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0.22768115942028996</v>
-      </c>
-      <c r="F25" s="15">
-        <v>0.18513351446720258</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0.66681159420289848</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0.24123933665393343</v>
-      </c>
-      <c r="I25" s="15">
-        <v>0.42318840579710137</v>
-      </c>
-      <c r="J25" s="13">
-        <v>0.12427239538120734</v>
-      </c>
-      <c r="K25" s="13">
-        <v>6.3768115942028783E-3</v>
-      </c>
-      <c r="L25" s="13">
-        <v>0.13296624605146506</v>
-      </c>
-      <c r="M25" s="13">
-        <v>-0.28869565217391302</v>
-      </c>
-      <c r="N25" s="13">
-        <v>0.30087309282242997</v>
-      </c>
-      <c r="O25" s="13">
-        <v>1.028550724637681</v>
-      </c>
-      <c r="P25" s="13">
-        <v>0.4679566184766033</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>1.3463768115942027</v>
-      </c>
-      <c r="R25" s="13">
-        <v>0.56224910751723212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="13">
-        <v>1971</v>
-      </c>
-      <c r="C26" s="13">
-        <v>1992</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0.70095238095238088</v>
-      </c>
-      <c r="F26" s="15">
-        <v>0.45952870283282399</v>
-      </c>
-      <c r="G26" s="15">
-        <v>0.3299999999999999</v>
-      </c>
-      <c r="H26" s="15">
-        <v>0.33124938630037404</v>
-      </c>
-      <c r="I26" s="15">
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="J26" s="13">
-        <v>0.13395156109087422</v>
-      </c>
-      <c r="K26" s="13">
-        <v>1.571428571428576E-2</v>
-      </c>
-      <c r="L26" s="13">
-        <v>0.31894306858980254</v>
-      </c>
-      <c r="M26" s="13">
-        <v>-3.333333333333334E-2</v>
-      </c>
-      <c r="N26" s="13">
-        <v>0.3078601657681368</v>
-      </c>
-      <c r="O26" s="13">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="P26" s="13">
-        <v>0.73274345748758574</v>
-      </c>
-      <c r="Q26" s="13">
-        <v>1.3457142857142859</v>
-      </c>
-      <c r="R26" s="13">
-        <v>1.1003077676127404</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="13">
-        <v>1993</v>
-      </c>
-      <c r="C27" s="13">
-        <v>2005</v>
-      </c>
-      <c r="E27" s="15">
-        <v>1.3391666666666666</v>
-      </c>
-      <c r="F27" s="15">
-        <v>0.60062098565845157</v>
-      </c>
-      <c r="G27" s="15">
-        <v>0.52583333333333349</v>
-      </c>
-      <c r="H27" s="15">
-        <v>0.19290700583317077</v>
-      </c>
-      <c r="I27" s="15">
-        <v>0.26583333333333331</v>
-      </c>
-      <c r="J27" s="13">
-        <v>0.11794868400199192</v>
-      </c>
-      <c r="K27" s="13">
-        <v>0.15083333333333337</v>
-      </c>
-      <c r="L27" s="13">
-        <v>0.13355515062502263</v>
-      </c>
-      <c r="M27" s="13">
-        <v>4.5833333333333393E-2</v>
-      </c>
-      <c r="N27" s="13">
-        <v>0.28452507424679996</v>
-      </c>
-      <c r="O27" s="13">
-        <v>2.3275000000000001</v>
-      </c>
-      <c r="P27" s="13">
-        <v>0.71431923238752926</v>
-      </c>
-      <c r="Q27" s="13">
-        <v>3.0808333333333331</v>
-      </c>
-      <c r="R27" s="13">
-        <v>0.54670062117437934</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="13">
-        <v>2006</v>
-      </c>
-      <c r="C28" s="13">
-        <v>2018</v>
-      </c>
-      <c r="E28" s="15">
-        <v>1.39</v>
-      </c>
-      <c r="F28" s="15">
-        <v>0.39821260297291544</v>
-      </c>
-      <c r="G28" s="15">
-        <v>0.62</v>
-      </c>
-      <c r="H28" s="15">
-        <v>3.3437699486275375E-2</v>
-      </c>
-      <c r="I28" s="15">
-        <v>0.63</v>
-      </c>
-      <c r="J28" s="13">
-        <v>6.9915189834939356E-2</v>
-      </c>
-      <c r="K28" s="13">
-        <v>0.37</v>
-      </c>
-      <c r="L28" s="13">
-        <v>7.9034562422105367E-2</v>
-      </c>
-      <c r="M28" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="N28" s="13">
-        <v>0.17022828829376541</v>
-      </c>
-      <c r="O28" s="13">
-        <v>3.61</v>
-      </c>
-      <c r="P28" s="13">
-        <v>0.44684925677113407</v>
-      </c>
-      <c r="Q28" s="13">
-        <v>3.69</v>
-      </c>
-      <c r="R28" s="13">
-        <v>0.29181992278931213</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6441,11 +6238,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -6460,7 +6257,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
@@ -6476,7 +6273,7 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
@@ -6515,7 +6312,7 @@
       <c r="S4" s="14"/>
     </row>
     <row r="5" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -6549,7 +6346,7 @@
       <c r="S5" s="14"/>
     </row>
     <row r="6" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -6582,7 +6379,7 @@
       <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:19" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -6611,7 +6408,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -6634,7 +6431,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -6657,7 +6454,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -6680,7 +6477,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -6703,7 +6500,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -6827,11 +6624,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -6851,7 +6648,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6871,7 +6668,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6942,7 +6739,7 @@
       <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -6976,7 +6773,7 @@
       <c r="U6" s="14"/>
     </row>
     <row r="7" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -7009,7 +6806,7 @@
       <c r="U7" s="15"/>
     </row>
     <row r="8" spans="1:21" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -7036,7 +6833,7 @@
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -7069,7 +6866,7 @@
       <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -7102,7 +6899,7 @@
       <c r="U10" s="15"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -7132,7 +6929,7 @@
       <c r="U11" s="15"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -7162,7 +6959,7 @@
       <c r="U12" s="15"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -7292,12 +7089,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="34"/>
+    <col min="1" max="1" width="14.42578125" style="33"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -7317,7 +7114,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7347,7 +7144,7 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7381,7 +7178,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -7415,7 +7212,7 @@
       <c r="T5" s="20"/>
     </row>
     <row r="6" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -7448,7 +7245,7 @@
       <c r="T6" s="20"/>
     </row>
     <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -7481,7 +7278,7 @@
       <c r="T7" s="20"/>
     </row>
     <row r="8" spans="1:20" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -7507,7 +7304,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -7540,7 +7337,7 @@
       <c r="T9" s="20"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -7570,7 +7367,7 @@
       <c r="T10" s="20"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -7600,7 +7397,7 @@
       <c r="T11" s="20"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -7768,7 +7565,7 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -7785,7 +7582,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -7802,7 +7599,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -7811,7 +7608,7 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -7838,7 +7635,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -7864,7 +7661,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -7890,7 +7687,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -7916,7 +7713,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -7942,7 +7739,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -7968,7 +7765,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -7991,7 +7788,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -8014,7 +7811,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -8206,18 +8003,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:H5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
@@ -8225,10 +8023,11 @@
         <v>0.95416999999999996</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
@@ -8236,13 +8035,15 @@
         <v>3.2896999999999998</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -8265,7 +8066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
@@ -8297,18 +8098,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:H5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
@@ -8316,10 +8118,11 @@
         <v>0.95416999999999996</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
@@ -8327,13 +8130,14 @@
         <v>3.2896999999999998</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -8356,7 +8160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
@@ -8385,18 +8189,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E700963A-2E81-4D98-8532-52392815F16C}">
-  <dimension ref="B1:H5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1" activeCellId="1" sqref="A2:B3 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
@@ -8404,10 +8209,11 @@
         <v>0.95416999999999996</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
@@ -8415,13 +8221,14 @@
         <v>3.2896999999999998</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -8444,7 +8251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
@@ -8475,17 +8282,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0414F62-F26B-4AD1-AB30-17B83DAD40A3}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="34"/>
+    <col min="1" max="1" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -8505,7 +8312,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -8522,7 +8329,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -8579,11 +8386,11 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5">
-        <f>R5-T5</f>
+        <f t="shared" ref="F5:F10" si="0">R5-T5</f>
         <v>-0.15399999999999997</v>
       </c>
       <c r="G5">
-        <f>SQRT(S5^2+ U5^2)</f>
+        <f t="shared" ref="G5:G10" si="1">SQRT(S5^2+ U5^2)</f>
         <v>0.30083217912982646</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -8611,7 +8418,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -8625,11 +8432,11 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6">
-        <f>R6-T6</f>
+        <f t="shared" si="0"/>
         <v>0.77000000000000013</v>
       </c>
       <c r="G6">
-        <f>SQRT(S6^2+ U6^2)</f>
+        <f t="shared" si="1"/>
         <v>0.37600136416247626</v>
       </c>
       <c r="H6" s="11" t="s">
@@ -8649,7 +8456,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -8663,11 +8470,11 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7">
-        <f>R7-T7</f>
+        <f t="shared" si="0"/>
         <v>1.8900000000000001</v>
       </c>
       <c r="G7">
-        <f>SQRT(S7^2+ U7^2)</f>
+        <f t="shared" si="1"/>
         <v>0.49731015669922207</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -8687,7 +8494,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -8701,11 +8508,11 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8">
-        <f>R8-T8</f>
+        <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
       <c r="G8">
-        <f>SQRT(S8^2+ U8^2)</f>
+        <f t="shared" si="1"/>
         <v>0.23991249685230437</v>
       </c>
       <c r="H8" s="11" t="s">
@@ -8725,7 +8532,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -8739,11 +8546,11 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9">
-        <f>R9-T9</f>
+        <f t="shared" si="0"/>
         <v>3.07</v>
       </c>
       <c r="G9">
-        <f>SQRT(S9^2+ U9^2)</f>
+        <f t="shared" si="1"/>
         <v>0.29372937729089094</v>
       </c>
       <c r="H9" s="11" t="s">
@@ -8763,7 +8570,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -8777,11 +8584,11 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10">
-        <f>R10-T10</f>
+        <f t="shared" si="0"/>
         <v>1.1600000000000001</v>
       </c>
       <c r="G10">
-        <f>SQRT(S10^2+ U10^2)</f>
+        <f t="shared" si="1"/>
         <v>0.30046299159562434</v>
       </c>
       <c r="H10" s="11" t="s">
@@ -8801,7 +8608,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -8814,11 +8621,11 @@
         <v>1956</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F13" si="0">R11-T11</f>
+        <f t="shared" ref="F11:F13" si="2">R11-T11</f>
         <v>0.6100000000000001</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G13" si="1">SQRT(S11^2+ U11^2)</f>
+        <f t="shared" ref="G11:G13" si="3">SQRT(S11^2+ U11^2)</f>
         <v>0.31450596178769014</v>
       </c>
       <c r="H11" s="11" t="s">
@@ -8838,7 +8645,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -8851,11 +8658,11 @@
         <v>1993</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.46899999999999997</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.27679595372765115</v>
       </c>
       <c r="H12" s="11" t="s">
@@ -8875,7 +8682,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -8888,11 +8695,11 @@
         <v>2018</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6440000000000001</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.29288222889072668</v>
       </c>
       <c r="H13" s="11" t="s">
@@ -8922,11 +8729,11 @@
         <v>1970</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F17" si="2">R14-T14</f>
+        <f t="shared" ref="F14:F17" si="4">R14-T14</f>
         <v>0.67956521739130427</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G17" si="3">SQRT(S14^2+ U14^2)</f>
+        <f t="shared" ref="G14:G17" si="5">SQRT(S14^2+ U14^2)</f>
         <v>0.6118173554690598</v>
       </c>
       <c r="H14" s="11" t="s">
@@ -8956,11 +8763,11 @@
         <v>1992</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.015714285714286</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1490880468411926</v>
       </c>
       <c r="H15" s="11" t="s">
@@ -8990,11 +8797,11 @@
         <v>2005</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5549999999999997</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.57973673515827095</v>
       </c>
       <c r="H16" s="11" t="s">
@@ -9024,11 +8831,11 @@
         <v>2018</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.07</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.29372937729089094</v>
       </c>
       <c r="H17" s="11" t="s">

--- a/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
+++ b/data/raw_data/ComparisonEstimates/ComparisonSLRrates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag\Documents\Python\project01\data\raw_data\ComparisonEstimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC15508F-5727-4528-82CF-1A33067A88EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED23EA1B-A549-4F10-9839-3A570E9FD803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMSL" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Expert" sheetId="8" r:id="rId10"/>
     <sheet name="transposed ar6" sheetId="11" r:id="rId11"/>
     <sheet name="Frederikse" sheetId="12" r:id="rId12"/>
+    <sheet name="G&amp;C GMSL" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="112">
   <si>
     <t>#</t>
   </si>
@@ -370,13 +371,22 @@
   </si>
   <si>
     <t xml:space="preserve">non-overlapping derived from AR6 </t>
+  </si>
+  <si>
+    <t>G&amp;C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># </t>
+  </si>
+  <si>
+    <t>THIS SHEET IS FOR G&amp;C comparison</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -499,6 +509,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -545,7 +568,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -613,6 +636,16 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -839,7 +872,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G17"/>
+      <selection activeCell="D20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1357,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA05C6A7-BA3D-4777-877F-5B2D19C566E2}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1596,7 +1629,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6222,6 +6255,346 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F34BC1D-6B1C-4C60-9603-89084F2EE696}">
+  <dimension ref="A1:S21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="33" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2">
+        <v>0.95416999999999996</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3.2896999999999998</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+    </row>
+    <row r="4" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+    </row>
+    <row r="5" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1850</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1900</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <f>0.014*1000/50</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G5" s="5">
+        <f>0.014*1000/50</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+    </row>
+    <row r="6" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1901</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1990</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1993</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="20">
+        <v>3.335</v>
+      </c>
+      <c r="G7" s="21">
+        <f>0.4*2/$I$2</f>
+        <v>0.24318326899109344</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+    </row>
+    <row r="8" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="H8" s="11"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+    </row>
+    <row r="9" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="H9" s="11"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="11"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="5"/>
+      <c r="H10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="5"/>
+      <c r="H11" s="11"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="5"/>
+      <c r="H12" s="11"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+    </row>
+    <row r="13" spans="1:19" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+      <c r="A13" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="11"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="11"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="11"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+    </row>
+    <row r="17" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="26"/>
+      <c r="S17" s="20"/>
+    </row>
+    <row r="18" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S18" s="20"/>
+    </row>
+    <row r="19" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S19" s="20"/>
+    </row>
+    <row r="20" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S20" s="20"/>
+    </row>
+    <row r="21" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S21" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J1" r:id="rId1" xr:uid="{85BD4BEA-9251-40C9-9DBC-7F660AC2C3DE}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{13E7C3CA-D674-4F3D-8177-F6D2AA0C54CC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
